--- a/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -558,52 +558,52 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3808747384475201</v>
+        <v>0.4301603025582826</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8233803165182988</v>
+        <v>0.8020082662144977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8266477737687958</v>
+        <v>0.8055233222190668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8234959513801418</v>
+        <v>0.8016710856413705</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8249593532625412</v>
+        <v>0.8034870602144837</v>
       </c>
       <c r="L2" t="n">
-        <v>0.397533239988324</v>
+        <v>0.4447749411181744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8116067561715028</v>
+        <v>0.7838891294932872</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8123654749495743</v>
+        <v>0.7856614427635353</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8116174120506876</v>
+        <v>0.7839061573896929</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8119912712082599</v>
+        <v>0.7847828185875904</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3819481831238201</v>
+        <v>0.4253525895537421</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8028596187175043</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8271271770682148</v>
+        <v>0.8042856334521586</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8028596187175043</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8260404989535174</v>
+        <v>0.8035719934357226</v>
       </c>
     </row>
     <row r="3">
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -623,52 +623,52 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3713933006863481</v>
+        <v>0.384422845642245</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8287144976685036</v>
+        <v>0.8223602868447083</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8320892539634214</v>
+        <v>0.8254391978797533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8291214316086344</v>
+        <v>0.8227426522211665</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8304865271157038</v>
+        <v>0.8239968051836145</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3941192230585592</v>
+        <v>0.398727473766068</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8150714595062798</v>
+        <v>0.808575140753573</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8152180113640628</v>
+        <v>0.8095234332552199</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8150761139495974</v>
+        <v>0.8085871090203847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8151470564816019</v>
+        <v>0.809055000234471</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3762179893207747</v>
+        <v>0.3863045569158255</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8288561525129983</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8299028016009149</v>
+        <v>0.8279016885922597</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8288561525129983</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8293791468479439</v>
+        <v>0.8266439103359227</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -688,52 +688,52 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3777789694426569</v>
+        <v>0.3788210244720143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8244003461918893</v>
+        <v>0.8249567260138477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8282406011601945</v>
+        <v>0.8286346182251999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8248741801944415</v>
+        <v>0.8250259563446581</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8264435529251679</v>
+        <v>0.8267172783919743</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3944923199259687</v>
+        <v>0.3965571062476371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8098744045041143</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8125243940113174</v>
+        <v>0.8109184552199258</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8111878877910074</v>
+        <v>0.8098869357101592</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8118555908502398</v>
+        <v>0.8104023672231373</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3815223797738896</v>
+        <v>0.3796335772837804</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8265421618562536</v>
+        <v>0.8291699252324444</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8253143203140737</v>
+        <v>0.8281452229647879</v>
       </c>
     </row>
     <row r="5">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -756,37 +756,37 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3690181171718754</v>
+        <v>0.3786165621852529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8294077645895154</v>
+        <v>0.8250494559841741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8327088950330773</v>
+        <v>0.8283764840631317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8296530581933858</v>
+        <v>0.8259394872870817</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8310729636959039</v>
+        <v>0.8270469252957989</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3951163150496042</v>
+        <v>0.3926690148594194</v>
       </c>
       <c r="M5" t="n">
-        <v>0.815937635339974</v>
+        <v>0.8103074924209615</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8166535077825401</v>
+        <v>0.8109358766758531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8159479169011232</v>
+        <v>0.8103172102305551</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8163005598678462</v>
+        <v>0.8106264254123585</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3761565204427377</v>
+        <v>0.3821192609740729</v>
       </c>
       <c r="R5" t="n">
         <v>0.824523396880416</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -821,60 +821,60 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.378635392282865</v>
+        <v>0.422302285848319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8253276458951534</v>
+        <v>0.8046047053836372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8286273836018865</v>
+        <v>0.8092418349305451</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8259586549912042</v>
+        <v>0.8045309195186041</v>
       </c>
       <c r="K6" t="n">
-        <v>0.827183045716841</v>
+        <v>0.8067614162172968</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3952639390070448</v>
+        <v>0.4364393957333203</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.7860545690775227</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8121298457750306</v>
+        <v>0.7878800118988477</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8111856370088606</v>
+        <v>0.7860717849452685</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8116574667903035</v>
+        <v>0.7869748597356376</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3819092196826998</v>
+        <v>0.41682201912825</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8093587521663779</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8232859127703274</v>
+        <v>0.8115145557655954</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8093587521663779</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8223872103963927</v>
+        <v>0.8104352203285963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -886,54 +886,54 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3755723358464089</v>
+        <v>0.3833869786558489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8281095450049456</v>
+        <v>0.8231948565776459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8319773656714821</v>
+        <v>0.8267363290224217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8283351028160622</v>
+        <v>0.8237195032737519</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8300334158066873</v>
+        <v>0.8251237016539215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3962830859037624</v>
+        <v>0.3984408300760729</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8124729320051971</v>
+        <v>0.8111736682546556</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8129462239553983</v>
+        <v>0.8125968448914132</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8124813372646995</v>
+        <v>0.8111882629213651</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8127137141291918</v>
+        <v>0.811891942956345</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3825795675175216</v>
+        <v>0.3840191535721026</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8219237435008665</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8238499918794073</v>
+        <v>0.828508877141096</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8219237435008666</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8228857404292214</v>
+        <v>0.8267289591222565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -948,63 +948,63 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3751108370161707</v>
+        <v>0.378572702303916</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8264404055390703</v>
+        <v>0.8243076162215629</v>
       </c>
       <c r="I8" t="n">
-        <v>0.830054870255865</v>
+        <v>0.8277444860110514</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8269650842337883</v>
+        <v>0.8246397567930283</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8283994208279063</v>
+        <v>0.8260874786391481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3936966064555502</v>
+        <v>0.3975839759154334</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8120398440883499</v>
+        <v>0.808575140753573</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8131878557874763</v>
+        <v>0.8096462884528809</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8120529383960926</v>
+        <v>0.8085878592811002</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8126200008312765</v>
+        <v>0.8091167277266272</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3799529589933925</v>
+        <v>0.379804650833333</v>
       </c>
       <c r="R8" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8268325736761584</v>
+        <v>0.8280937618147448</v>
       </c>
       <c r="T8" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8256763707573815</v>
+        <v>0.8269569341668689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -1016,49 +1016,3689 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3662496034223059</v>
+        <v>0.3744204023377544</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8302423343224531</v>
+        <v>0.827274975272008</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8344401860801158</v>
+        <v>0.8304805939020395</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8305333808476592</v>
+        <v>0.8276838697138305</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8323557353598078</v>
+        <v>0.8289683137426112</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3915390899745356</v>
+        <v>0.3941163809773006</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8168038111736683</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8180717437447933</v>
+        <v>0.8143593752348882</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8168174690705019</v>
+        <v>0.813781539084832</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8174441252726122</v>
+        <v>0.8140703546212489</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3743808167771366</v>
+        <v>0.3791495288473982</v>
       </c>
       <c r="R9" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8292185915084771</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8283866247785252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4167488845991178</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8090557439593048</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8137543230815251</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8093531761677273</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8114217511078209</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4324416346433246</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7925508878302295</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7948037073716518</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7925697930030686</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7936851782909524</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4105513726239103</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8145580589254766</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8167500945179584</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8145580589254766</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8156526039711435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3815769559271752</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8244930761622157</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.828112468054097</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.824886102365324</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8263948786442613</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3992849992030231</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8098744045041143</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8114804413663292</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8098899367530217</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.810684408946458</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3820903499720025</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8216517973956592</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8200515576444559</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.377778911826943</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8243076162215629</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8284804764831744</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8245358644479072</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8263881828620885</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3966472104595165</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8116067561715028</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8130688893109863</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8116215384846234</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8123445692136303</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.380558931895212</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8259738882830485</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.824596435924552</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3736160458080934</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8298714144411474</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8337035822926238</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8305663292776136</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8320190883283339</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3953540259169638</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8163707232568211</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8171682596700873</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8163815675947392</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8167747242031069</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3808212576875414</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.8266897746967071</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.8293648270118859</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.826689774696707</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8280251403262312</v>
+      <c r="S13" t="n">
+        <v>0.8287794010513493</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8277332690520393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4097964256910059</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8115594531581178</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8146743750819341</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8115799613610216</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8130262615340493</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4257896854076975</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.797747942832395</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7996059425672615</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7977649733282316</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7986843970896499</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4050841148473656</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8132582322357019</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8148092109979588</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.8132582322357018</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8140329828467225</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3805287805984743</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8225457467853611</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.826334467540064</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8228231350452273</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8244689705749466</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3941118414863288</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8155187241618638</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8137882914312724</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8146525888790754</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3815089549999325</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8259738882830485</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.824596435924552</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3747866984636663</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8265331355093967</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8301084186319518</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.826994713224199</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8284450479611034</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3910863629334663</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8138080397987191</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8129176138708201</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8133625831371518</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3799204705007936</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8265421618562536</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8253143203140737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3708055663569039</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8309400169563375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8343120624188946</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8312602800555893</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8326794200732892</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3944925461161062</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8150714595062798</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8162640259055651</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8150847419478269</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8156739576810395</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3790884025036556</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8261631193453703</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.825125318312665</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4639699618249474</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7964400522820403</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7992969553086224</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7962346139891318</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7976672100236123</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4746517486952717</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7847553053269813</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.786025509827297</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.784769707473347</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.785397106662687</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4567242695884783</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.7972270363951474</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7983885801473316</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.7972270363951472</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.79780738549276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3825126100649295</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8230093966369931</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8267978138492729</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8232370780452288</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8248949150836304</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3975328647892403</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8100603068109005</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.808590110063247</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8093245407578595</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3849992058662445</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8180242634315424</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8207303404822488</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.8180242634315424</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8193750676830798</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3781407498032754</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8264889783806698</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8301689425115649</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8269880676315224</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8284611590962598</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3961069366599824</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8135395852409154</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8129157382190311</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8132275420878592</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3832957362667224</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8276428657726229</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8267320434117601</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3763694626869616</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8280168150346192</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8319643116549004</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8281757686493587</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8299413631535141</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3974015951984358</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8095234332552199</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8085871090203847</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.809055000234471</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3806964625507238</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8253899480069324</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8284285600597243</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8253899480069324</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8269064625652313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4305820862022966</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8021009961848241</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8056895195379548</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8021166302576161</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8037934347423856</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4432051612244343</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7864876569943698</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.787973657380036</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7865031848567376</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7872377344492076</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4247343338961632</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8045927209705372</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8059548781214478</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8045927209705372</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.805273223508344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3804923993157937</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8243076162215629</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8267378319457612</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.824926603454047</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8257355173221284</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3938897810568631</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8090082286704201</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8101128011456296</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.8090211348443584</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8095665999787086</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3840513630981071</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8247959470869688</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8235746774236059</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.376746174911938</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.825839868588385</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8291191227447005</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8266082070314185</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8277537960787075</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3949541014858197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8163707232568211</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8172244664605478</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8163819427250969</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8168029873292756</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3822139071257362</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8235977225705695</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.822759881571309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3707355529155497</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8290854175498092</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8327846503463343</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8291977209708163</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8308602682272453</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3925955285245391</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8181030749242096</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8187470023710399</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8181127941959832</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8184297754202065</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3761816370884642</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.8286006048466281</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8276440868618981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4084277579826822</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8144296665253637</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8173330281019375</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8145911809305861</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8158666462054177</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4238107008517547</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7955825032481594</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7971525713139321</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7955982203815826</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.796374637409327</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4041774744353439</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.8188908145580589</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8205894342699258</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8188908145580589</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.8197392444677633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.378239764980192</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.824771266073195</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8280418323664841</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8250863978885841</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8264585073200734</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3953533127683992</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.811851272946849</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8107534868366757</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8113020085338157</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3816341119098158</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8238258180850033</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8226564856216728</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3736311754715158</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8268113254203759</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8297106206891918</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8269098455980589</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8282051962699772</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3945185305121097</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8133391078388913</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8143323223276712</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8133512645644361</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8138414977883648</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3800187164886557</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8248638482345554</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8240428929597615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.37042982730274</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8319114737883284</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8350647896691716</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8323232833773793</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8335835782664351</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.394745276739442</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8116544979166196</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8103217117948487</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8109875572771582</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3793528413952473</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.8272211720226843</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.8260873703547418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.40348480938885</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8169377914370496</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8213751869001946</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8171210917001333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8191167877882471</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.4193008682621195</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8007795582503248</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.803736473361879</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8008009033139016</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8022660029621453</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3989693577819487</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.8234022833678805</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.8217933244733748</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3750081833183029</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8270895153313551</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.831419565928935</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8275299058927897</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8293525524051825</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3937670876016329</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8100603068109005</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.808590110063247</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8093245407578595</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3784947025738228</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8254849166080483</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.8241354030159994</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3700759619086954</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8310769040553908</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8340127610403982</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8313070793592058</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.832557684590546</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.392342292954982</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.814736258294841</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8137841649973365</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8142599333316033</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3794520520300713</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8264443556975506</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.8252655595301516</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3654661882259773</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8335364561254769</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8367039525379282</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8339422383223831</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8352193630222327</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3959012951360305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8129986499483006</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8120518130050193</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8125249556390113</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.380235786156999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8266448335571819</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.82558275239777</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6906061199850571</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7005528472516603</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7059028198989801</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7000487469195916</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7028723721065682</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6906403325077886</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6951061065396276</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6999600089210868</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.695072287619948</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6975075858094271</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6904328999309397</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.7222703639514731</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7267951426161191</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.7222703639514731</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.7245256888612869</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3881134193547768</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.821618447082097</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8245961779987699</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.822202141145762</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8232948390528001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.406625718722618</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.811851272946849</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8107534868366757</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8113020085338157</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3890824545572588</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8214314136403427</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8184575389948008</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8199417798147406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.378535025806685</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8267185954500496</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8299986496898809</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8267323279390533</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8282442005001335</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3995971156241696</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8046773495019489</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.806035411727648</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8046917553849964</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8053630231223753</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.3814078821329498</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.827827994654756</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.8249566724436741</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.8263898394278077</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3712835073850867</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.82773862512364</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8318877061053637</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8282405239402025</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8299277118255597</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3881024442831563</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8142052836725855</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8149702409154698</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8142159400391636</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8145929158595172</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3751728693151565</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.8258164359156311</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.8249523754858261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6268203668322878</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7776600254345061</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8098505149693656</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7783038682316809</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7933534990141272</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6262279371849675</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.772628843655262</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8003805722219468</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.7726946363861442</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7862939697216335</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6215847584627705</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7824956672443674</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.8129514955295496</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.7824956672443675</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.7974328925135884</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3805934850281503</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.82412215628091</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8277892422838701</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8246110214189012</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8260819150062058</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3997237732557368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8115157280167018</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8103209615341331</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8109179046981406</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3821620691659634</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.82105719237435</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8237373465859916</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.8210571923743502</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.8223950858558859</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3754670159552687</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8290368447082097</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8324128027770608</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8294918656968341</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8308450050318359</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3958729136015335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8150714595062798</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8167843376856524</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8150873678603314</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8159349704405824</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3783569147672318</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8302384737678855</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.8275563258232235</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.8288952300705684</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3735183234439214</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8283877349159249</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.832251138519038</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8285430355541403</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.830273798129999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3977284820677195</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8125243940113174</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8111878877910074</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8118555908502398</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3801422043932701</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.825870239987887</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.8245447812376759</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4275830422942209</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8004318567189488</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8043229477121719</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7999714274332964</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8020303646282195</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4394589201895726</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7916847119965353</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.7940215402113184</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.7917039921372677</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7928610726185781</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4207368839033657</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.8093587521663779</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8104366539772676</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.8093587521663779</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.8098973444239622</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3761104783201196</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8298714144411474</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8333602146007731</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8304366105511085</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8317963568953857</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3944905899867661</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8146383715894326</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.815932662783585</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8146522166452842</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8152919369677412</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.381337243919242</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8252910254433774</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.8242560013858971</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.371633643669741</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8316332838773492</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8354541411825143</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8318894053695823</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8335640618112783</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3966905004035532</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8118009121405149</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8103224620555642</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8110610133469893</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3800409428483203</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.828578007981505</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.8274156251761166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.368720106105672</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8305249399463049</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8345128733408927</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8304970732270037</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8323889713211738</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3941915877137477</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.815937635339974</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8174963623067122</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8159527935957746</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8167238486342773</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3793519725708163</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8269294924408906</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.8257246918719775</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3925939694021664</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8199493076162216</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8232515579771796</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8204109019845269</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8217234770950783</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.4053315471007944</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8051104374187961</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.806809197622137</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8051265314696857</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8059669862958269</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3898716128588678</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8234022833678805</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.8217933244733748</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3732569146157164</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8298272573124206</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.833575966449197</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8304333330995076</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8318834493881708</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3941463418257335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8116067561715028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8134653496729904</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8116234141364125</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8125433380458685</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3821783943520093</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8243105645975725</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.8231154237624312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3681122027693841</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8321455065705807</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8349763168330527</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8323243329761938</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8335572892593979</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3949495541952726</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8124729320051971</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8134031471130896</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8124847134379196</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8129436708724929</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3799243567891292</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8235468376393914</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.822517367511766</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3606721790765312</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8344195987000141</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8384168452114793</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8344328947852169</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8363110238989332</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3935132771439891</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8133235603419442</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8120536886568082</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8126881284378933</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3788138895440378</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.8283892652450707</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.827321507668083</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6930129042411806</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5468153878762188</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4926962734311859</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5486051983165333</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4977015686104351</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6930164099973681</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6487656994369857</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6489885782987677</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6487571931246108</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6488728650839592</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6930139053348157</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.6386481802426344</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6388688327316486</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.6386481802426343</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.638758487431614</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6905525612617848</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6808543521266073</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.7411989758332801</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6820424429201914</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7090045935707174</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6903763393170959</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7366825465569511</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.7380664556818748</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.736699002903509</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7373820953182894</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.6902355074620592</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.7409012131715771</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.7416917791706847</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.7409012131715771</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.7412962853935937</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3835718619432099</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8232875865479724</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8273308315799237</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8238500080504937</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8254693844429071</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3992455086092297</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8090082286704201</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8098705245973172</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.8090196343229272</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8094448558457358</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3833671155690974</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8240281860253487</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.8229746194387821</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3775238602595301</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8276458951533137</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8323950616922261</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8274849917255315</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8297965303554692</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3940065247720678</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8129393990465643</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8120514378746615</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8124951758515394</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.380460562446149</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8248952556247124</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.8236241817712084</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6703454521632798</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7433985092553342</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7519638652159724</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7437868059283433</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7476970179322892</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6703647653646528</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7336509311390212</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7400866235321867</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.7336863310000226</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7368725796896933</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.6695141777081139</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.7422010398613518</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.7481720430107527</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.7422010398613519</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.745174580377771</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3801887747003441</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8255131058358062</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.8282263490681345</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.825823436288195</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8269212445720535</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3946711712511566</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8120135707461653</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.811184886748145</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8115990172150516</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3822026462244058</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8224689879127918</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.8213282345623243</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3755684741584862</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.827879927935566</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8311338382971382</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8282104486229799</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8295628544867691</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3965321970567859</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8155045474231269</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8165356997696789</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8155168921200118</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8160259779498763</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.381264666325505</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.8266420043108668</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.8253640903235298</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3719161879098001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8288072276388301</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8325038698513264</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8288435521223869</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8305511753919725</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3941403161376643</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8124729320051971</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8144219736087206</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.8124899652629289</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8134548222759328</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3805073551042012</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.825915294549364</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8243498329848657</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4631656309102139</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7992705242334323</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8044895468534345</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.7990458386158551</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8016407330751678</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.4679362607028252</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7886530965786055</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.7911980044107608</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.7886733139766069</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7899336419212282</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.4531033011515532</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8024263431542461</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8055133281750186</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.8024263431542461</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.8039668724077739</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3753581193507645</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8296859545004946</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8328748881705327</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8301463623335678</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8314022333542636</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3952412432249821</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8125243940113174</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8111878877910074</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8118555908502398</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3810471466688674</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8281900474392487</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.8270049420916966</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3707104159922064</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8335806132542039</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8370164737121142</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8334549586598557</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8351299214008265</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3931857875727882</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.813394290106015</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.812054063787166</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8127236244200887</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.3820891240196104</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8287749287749289</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.8275137978311015</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3675319659514592</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.83135509396637</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8350899768254785</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8311421458331171</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.8330233532814705</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3923334656843725</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.814647771507891</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8129221154351137</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8137840286447705</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.379978617827418</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8229672482914441</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.8215765988153263</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3989464957170282</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8178165182987142</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8221613700104407</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.817975412664226</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8199522424066287</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.4169456756558208</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8003464703334777</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8023044383733766</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8003638764470653</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8013329825630754</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3970970628210002</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.8214314136403427</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.8184575389948008</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.8199417798147406</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3702938673245725</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8304277942631059</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8334603345673698</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8306783105028703</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8319699087395166</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3962109044793564</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8118009121405149</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8103224620555642</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8110610133469893</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.3809840577233513</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8276175334998864</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.8249566724436741</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.8262849608042653</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3663706232621226</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8320969337289813</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8357802516419646</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8324125281444978</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8339910912535753</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3944428678619273</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8152821227997438</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.813787166040199</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8145339584774739</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3804484420443037</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8291934219050108</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.8277223553315838</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3562208378535648</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8376607319485658</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8418177297999815</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8376458693821019</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8396158113600034</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3916733269127297</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8120539884880813</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8107546122277491</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8114037801552663</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.3777104671771396</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.8255894451652582</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.8241874932462246</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +4740,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 08:59:22</t>
+          <t>2025-11-13 10:28:32</t>
         </is>
       </c>
     </row>

--- a/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -558,52 +558,52 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3808747384475201</v>
+        <v>0.4301603025582826</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8233803165182988</v>
+        <v>0.8020082662144977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8266477737687958</v>
+        <v>0.8055233222190668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8234959513801418</v>
+        <v>0.8016710856413705</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8249593532625412</v>
+        <v>0.8034870602144837</v>
       </c>
       <c r="L2" t="n">
-        <v>0.397533239988324</v>
+        <v>0.4447749411181744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8116067561715028</v>
+        <v>0.7838891294932872</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8123654749495743</v>
+        <v>0.7856614427635353</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8116174120506876</v>
+        <v>0.7839061573896929</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8119912712082599</v>
+        <v>0.7847828185875904</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3819481831238201</v>
+        <v>0.4253525895537421</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8028596187175043</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8271271770682148</v>
+        <v>0.8042856334521586</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8028596187175043</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8260404989535174</v>
+        <v>0.8035719934357226</v>
       </c>
     </row>
     <row r="3">
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -623,52 +623,52 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3713933006863481</v>
+        <v>0.384422845642245</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8287144976685036</v>
+        <v>0.8223602868447083</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8320892539634214</v>
+        <v>0.8254391978797533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8291214316086344</v>
+        <v>0.8227426522211665</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8304865271157038</v>
+        <v>0.8239968051836145</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3941192230585592</v>
+        <v>0.398727473766068</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8150714595062798</v>
+        <v>0.808575140753573</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8152180113640628</v>
+        <v>0.8095234332552199</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8150761139495974</v>
+        <v>0.8085871090203847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8151470564816019</v>
+        <v>0.809055000234471</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3762179893207747</v>
+        <v>0.3863045569158255</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8288561525129983</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8299028016009149</v>
+        <v>0.8279016885922597</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8288561525129983</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8293791468479439</v>
+        <v>0.8266439103359227</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -688,52 +688,52 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3777789694426569</v>
+        <v>0.3788210244720143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8244003461918893</v>
+        <v>0.8249567260138477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8282406011601945</v>
+        <v>0.8286346182251999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8248741801944415</v>
+        <v>0.8250259563446581</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8264435529251679</v>
+        <v>0.8267172783919743</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3944923199259687</v>
+        <v>0.3965571062476371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8098744045041143</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8125243940113174</v>
+        <v>0.8109184552199258</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8111878877910074</v>
+        <v>0.8098869357101592</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8118555908502398</v>
+        <v>0.8104023672231373</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3815223797738896</v>
+        <v>0.3796335772837804</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8265421618562536</v>
+        <v>0.8291699252324444</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8253143203140737</v>
+        <v>0.8281452229647879</v>
       </c>
     </row>
     <row r="5">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -756,37 +756,37 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3690181171718754</v>
+        <v>0.3786165621852529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8294077645895154</v>
+        <v>0.8250494559841741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8327088950330773</v>
+        <v>0.8283764840631317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8296530581933858</v>
+        <v>0.8259394872870817</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8310729636959039</v>
+        <v>0.8270469252957989</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3951163150496042</v>
+        <v>0.3926690148594194</v>
       </c>
       <c r="M5" t="n">
-        <v>0.815937635339974</v>
+        <v>0.8103074924209615</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8166535077825401</v>
+        <v>0.8109358766758531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8159479169011232</v>
+        <v>0.8103172102305551</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8163005598678462</v>
+        <v>0.8106264254123585</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3761565204427377</v>
+        <v>0.3821192609740729</v>
       </c>
       <c r="R5" t="n">
         <v>0.824523396880416</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -821,60 +821,60 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.378635392282865</v>
+        <v>0.422302285848319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8253276458951534</v>
+        <v>0.8046047053836372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8286273836018865</v>
+        <v>0.8092418349305451</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8259586549912042</v>
+        <v>0.8045309195186041</v>
       </c>
       <c r="K6" t="n">
-        <v>0.827183045716841</v>
+        <v>0.8067614162172968</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3952639390070448</v>
+        <v>0.4364393957333203</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.7860545690775227</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8121298457750306</v>
+        <v>0.7878800118988477</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8111856370088606</v>
+        <v>0.7860717849452685</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8116574667903035</v>
+        <v>0.7869748597356376</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3819092196826998</v>
+        <v>0.41682201912825</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8093587521663779</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8232859127703274</v>
+        <v>0.8115145557655954</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8093587521663779</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8223872103963927</v>
+        <v>0.8104352203285963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -886,54 +886,54 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3755723358464089</v>
+        <v>0.3833869786558489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8281095450049456</v>
+        <v>0.8231948565776459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8319773656714821</v>
+        <v>0.8267363290224217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8283351028160622</v>
+        <v>0.8237195032737519</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8300334158066873</v>
+        <v>0.8251237016539215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3962830859037624</v>
+        <v>0.3984408300760729</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8124729320051971</v>
+        <v>0.8111736682546556</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8129462239553983</v>
+        <v>0.8125968448914132</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8124813372646995</v>
+        <v>0.8111882629213651</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8127137141291918</v>
+        <v>0.811891942956345</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3825795675175216</v>
+        <v>0.3840191535721026</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8219237435008665</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8238499918794073</v>
+        <v>0.828508877141096</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8219237435008666</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8228857404292214</v>
+        <v>0.8267289591222565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -948,63 +948,63 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3751108370161707</v>
+        <v>0.378572702303916</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8264404055390703</v>
+        <v>0.8243076162215629</v>
       </c>
       <c r="I8" t="n">
-        <v>0.830054870255865</v>
+        <v>0.8277444860110514</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8269650842337883</v>
+        <v>0.8246397567930283</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8283994208279063</v>
+        <v>0.8260874786391481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3936966064555502</v>
+        <v>0.3975839759154335</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8120398440883499</v>
+        <v>0.808575140753573</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8131878557874763</v>
+        <v>0.8096462884528809</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8120529383960926</v>
+        <v>0.8085878592811002</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8126200008312765</v>
+        <v>0.8091167277266272</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3799529589933925</v>
+        <v>0.379804650833333</v>
       </c>
       <c r="R8" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8268325736761584</v>
+        <v>0.8280937618147448</v>
       </c>
       <c r="T8" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8256763707573815</v>
+        <v>0.8269569341668689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -1016,49 +1016,3689 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3662496034223059</v>
+        <v>0.3744204023377544</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8302423343224531</v>
+        <v>0.827274975272008</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8344401860801158</v>
+        <v>0.8304805939020395</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8305333808476592</v>
+        <v>0.8276838697138305</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8323557353598078</v>
+        <v>0.8289683137426112</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3915390899745356</v>
+        <v>0.3941163809773006</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8168038111736683</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8180717437447933</v>
+        <v>0.8143593752348882</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8168174690705019</v>
+        <v>0.813781539084832</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8174441252726122</v>
+        <v>0.8140703546212489</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3743808167771366</v>
+        <v>0.3791495288473982</v>
       </c>
       <c r="R9" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8292185915084771</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8283866247785252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4167488845991178</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8090557439593048</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8137543230815251</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8093531761677273</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8114217511078209</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4324416346433246</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7925508878302295</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7948037073716518</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7925697930030686</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7936851782909524</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4105513726239103</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8145580589254766</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8167500945179584</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8145580589254766</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8156526039711435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3815769559271753</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8244930761622157</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.828112468054097</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.824886102365324</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8263948786442613</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3992849992030231</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8098744045041143</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8114804413663292</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8098899367530217</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.810684408946458</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3820903499720025</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8216517973956592</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8200515576444559</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.377778911826943</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8243076162215629</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8284804764831744</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8245358644479072</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8263881828620885</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3966472104595165</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8116067561715028</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8130688893109863</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8116215384846234</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8123445692136303</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.380558931895212</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8259738882830485</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.824596435924552</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3736160458080934</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8298714144411474</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8337035822926238</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8305663292776136</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8320190883283339</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3953540259169638</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8163707232568211</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8171682596700873</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8163815675947392</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8167747242031069</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3808212576875414</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.8266897746967071</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.8293648270118859</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.826689774696707</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8280251403262312</v>
+      <c r="S13" t="n">
+        <v>0.8287794010513493</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8277332690520393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4097964256910059</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8115594531581178</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8146743750819341</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8115799613610216</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8130262615340493</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4257896854076975</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.797747942832395</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7996059425672615</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7977649733282316</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7986843970896499</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4050841148473656</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8132582322357019</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8148092109979588</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.8132582322357018</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8140329828467225</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3805287805984744</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8225457467853611</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.826334467540064</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8228231350452273</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8244689705749466</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3941118414863288</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8155187241618638</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8137882914312724</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8146525888790754</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3815089549999325</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8259738882830485</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.824596435924552</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3747866984636663</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8265331355093967</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8301084186319518</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.826994713224199</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8284450479611034</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3910863629334663</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8138080397987191</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8129176138708201</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8133625831371518</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3799204705007936</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8265421618562536</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8253143203140737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3708055663569039</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8309400169563375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8343120624188946</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8312602800555893</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8326794200732892</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3944925461161062</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8150714595062798</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8162640259055651</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8150847419478269</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8156739576810395</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3790884025036556</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8261631193453703</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.825125318312665</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4639699618249474</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7964400522820403</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7992969553086224</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7962346139891318</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7976672100236123</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4746517486952717</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7847553053269813</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.786025509827297</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.784769707473347</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.785397106662687</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4567242695884783</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.7972270363951474</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7983885801473316</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.7972270363951472</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.79780738549276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3825126100649295</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8230093966369931</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8267978138492729</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8232370780452288</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8248949150836304</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3975328647892403</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8100603068109005</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.808590110063247</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8093245407578595</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3849992058662445</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8180242634315424</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8207303404822488</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.8180242634315424</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8193750676830798</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3781407498032754</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8264889783806698</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8301689425115649</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8269880676315224</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8284611590962598</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3961069366599824</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8135395852409154</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8129157382190311</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8132275420878592</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3832957362667224</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8276428657726229</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8267320434117601</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3763694626869616</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8280168150346192</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8319643116549004</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8281757686493587</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8299413631535141</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3974015951984358</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8095234332552199</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8085871090203847</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.809055000234471</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3806964625507238</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8253899480069324</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8284285600597243</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8253899480069324</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8269064625652313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4305820862022966</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8021009961848241</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8056895195379548</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8021166302576161</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8037934347423856</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4432051612244343</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7864876569943698</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.787973657380036</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7865031848567376</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7872377344492076</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4247343338961632</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8045927209705372</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8059548781214478</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8045927209705372</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.805273223508344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3804923993157935</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8243076162215629</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8267378319457612</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.824926603454047</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8257355173221284</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3938897810568631</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8090082286704201</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8101128011456296</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.8090211348443584</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8095665999787086</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3840513630981071</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8247959470869688</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8235746774236059</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.376746174911938</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.825839868588385</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8291191227447005</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8266082070314185</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8277537960787075</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3949541014858197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8163707232568211</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8172244664605478</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8163819427250969</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8168029873292756</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3822139071257362</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8235977225705695</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.822759881571309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3707355529155497</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8290854175498092</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8327846503463343</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8291977209708163</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8308602682272453</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3925955285245391</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8181030749242096</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8187470023710399</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8181127941959832</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8184297754202065</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3761816370884642</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.8286006048466281</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.8266897746967071</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8276440868618981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4084277579826822</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8144296665253637</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8173330281019375</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8145911809305861</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8158666462054177</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4238107008517546</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7955825032481594</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7971525713139321</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7955982203815826</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.796374637409327</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4041774744353439</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.8188908145580589</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8205894342699258</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8188908145580589</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.8197392444677633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.378239764980192</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.824771266073195</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8280418323664841</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8250863978885841</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8264585073200734</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3953533127683992</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.811851272946849</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8107534868366757</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8113020085338157</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3816341119098157</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8238258180850033</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8226564856216728</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3736311754715158</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8268113254203759</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8297106206891918</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8269098455980589</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8282051962699772</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3945185305121097</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8133391078388913</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8143323223276712</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8133512645644361</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8138414977883648</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3800187164886557</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8248638482345554</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8240428929597615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.37042982730274</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8319114737883284</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8350647896691716</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8323232833773793</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8335835782664351</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3947452767394419</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8116544979166196</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8103217117948487</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8109875572771582</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3793528413952473</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.8272211720226843</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.8260873703547418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.40348480938885</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8169377914370496</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8213751869001946</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8171210917001333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8191167877882471</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.4193008682621195</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8007795582503248</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.803736473361879</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8008009033139016</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8022660029621453</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3989693577819487</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.8234022833678805</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.8217933244733748</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3750081833183029</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8270895153313551</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.831419565928935</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8275299058927897</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8293525524051825</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3937670876016329</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.808575140753573</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8100603068109005</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.808590110063247</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8093245407578595</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3784947025738228</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8254849166080483</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.8241354030159994</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3700759619086955</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8310769040553908</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8340127610403982</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8313070793592058</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.832557684590546</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.392342292954982</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.814736258294841</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8137841649973365</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8142599333316033</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3794520520300713</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8264443556975506</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.8252655595301516</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3654661882259773</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8335364561254769</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8367039525379282</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8339422383223831</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8352193630222327</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3959012951360305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8129986499483006</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8120518130050193</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8125249556390113</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.380235786156999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8266448335571819</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.82558275239777</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6906061199850571</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7005528472516603</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7059028198989801</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7000487469195916</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7028723721065682</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6906403325077886</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6951061065396276</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6999600089210868</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.695072287619948</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6975075858094271</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6904328999309397</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.7222703639514731</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7267951426161191</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.7222703639514731</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.7245256888612869</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3881134193547768</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.821618447082097</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8245961779987699</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.822202141145762</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8232948390528001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4066257187226179</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.811851272946849</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8107534868366757</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8113020085338157</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3890824545572588</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8214314136403427</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8184575389948008</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8199417798147406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3785350258066851</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8267185954500496</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8299986496898809</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8267323279390533</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8282442005001335</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3995971156241696</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8046773495019489</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.806035411727648</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8046917553849964</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8053630231223753</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.3814078821329498</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.827827994654756</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.8249566724436741</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.8263898394278077</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3712835073850866</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.82773862512364</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8318877061053637</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8282405239402025</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8299277118255597</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3881024442831563</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8142052836725855</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8149702409154698</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8142159400391636</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8145929158595172</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3751728693151565</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.8258164359156311</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.8249523754858261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6268203668322878</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7776600254345061</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8098505149693656</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7783038682316809</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7933534990141272</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6262279371849675</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.772628843655262</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8003805722219468</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.7726946363861442</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7862939697216335</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6215847584627705</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7824956672443674</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.8129514955295496</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.7824956672443675</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.7974328925135884</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3805934850281503</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.82412215628091</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8277892422838701</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8246110214189012</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8260819150062058</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3997237732557368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8115157280167018</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8103209615341331</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8109179046981406</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3821620691659634</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.82105719237435</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8237373465859916</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.8210571923743502</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.8223950858558859</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3754670159552687</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8290368447082097</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8324128027770608</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8294918656968341</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8308450050318359</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3958729136015334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8150714595062798</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8167843376856524</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8150873678603314</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8159349704405824</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3783569147672318</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.8275563258232236</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8302384737678855</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.8275563258232235</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.8288952300705684</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3735183234439214</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8283877349159249</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.832251138519038</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8285430355541403</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.830273798129999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3977284820677195</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8125243940113174</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8111878877910074</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8118555908502398</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3801422043932701</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.825870239987887</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.8232235701906412</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.8245447812376759</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4275830422942209</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8004318567189488</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8043229477121719</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7999714274332964</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8020303646282195</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4394589201895726</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7916847119965353</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.7940215402113184</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.7917039921372677</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7928610726185781</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4207368839033657</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.8093587521663779</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8104366539772676</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.8093587521663779</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.8098973444239622</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3761104783201196</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8298714144411474</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8333602146007731</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8304366105511085</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8317963568953857</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3944905899867661</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8146383715894326</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.815932662783585</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8146522166452842</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8152919369677412</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.381337243919242</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8252910254433774</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8232235701906413</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.8242560013858971</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.371633643669741</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8316332838773492</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8354541411825143</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8318894053695823</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8335640618112783</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3966905004035532</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8118009121405149</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8103224620555642</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8110610133469893</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3800409428483203</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.828578007981505</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.8274156251761166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.368720106105672</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8305249399463049</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8345128733408927</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8304970732270037</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8323889713211738</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3941915877137476</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.815937635339974</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8174963623067122</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8159527935957746</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8167238486342773</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3793519725708163</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8269294924408906</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.824523396880416</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.8257246918719775</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3925939694021664</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8199493076162216</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8232515579771796</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8204109019845269</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8217234770950783</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.4053315471007944</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8051104374187961</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.806809197622137</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8051265314696857</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8059669862958269</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3898716128588678</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8234022833678805</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.8217933244733748</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3732569146157164</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8298272573124206</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.833575966449197</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8304333330995076</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8318834493881708</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3941463418257335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8116067561715028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8134653496729904</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8116234141364125</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8125433380458685</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3821783943520093</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8243105645975725</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.8231154237624312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3681122027693841</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8321455065705807</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8349763168330527</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8323243329761938</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8335572892593979</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3949495541952726</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8124729320051971</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8134031471130896</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8124847134379196</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8129436708724929</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3799243567891292</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8235468376393914</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.8214904679376083</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.822517367511766</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3606721790765312</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8344195987000141</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8384168452114793</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8344328947852169</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8363110238989332</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3935132771439891</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8133235603419442</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8120536886568082</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8126881284378933</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3788138895440378</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.8283892652450707</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.827321507668083</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6930129042411806</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5468153878762188</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4926962734311859</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5486051983165333</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4977015686104351</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6930164099973681</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6487656994369857</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6489885782987677</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6487571931246108</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6488728650839592</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6930139053348157</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.6386481802426344</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6388688327316486</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.6386481802426343</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.638758487431614</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6905525612617848</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6808543521266073</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.7411989758332801</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6820424429201914</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7090045935707174</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6903763393170959</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7366825465569511</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.7380664556818748</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.736699002903509</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7373820953182894</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.6902355074620592</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.7409012131715771</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.7416917791706847</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.7409012131715771</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.7412962853935937</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3835718619432099</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8232875865479724</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8273308315799237</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8238500080504937</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8254693844429071</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3992455086092297</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8090082286704201</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8098705245973172</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.8090196343229272</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8094448558457358</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3833671155690974</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.8219237435008665</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8240281860253487</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.8219237435008666</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.8229746194387821</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3775238602595302</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8276458951533137</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8323950616922261</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8274849917255315</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8297965303554692</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3940065247720678</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8129393990465643</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8120514378746615</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8124951758515394</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.380460562446149</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8248952556247124</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.8223570190641247</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.8236241817712084</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6703454521632798</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7433985092553342</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7519638652159724</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7437868059283433</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7476970179322892</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6703647653646528</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7336509311390212</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7400866235321867</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.7336863310000226</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7368725796896933</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.6695141777081139</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.7422010398613518</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.7481720430107527</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.7422010398613519</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.745174580377771</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.380188774700344</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8255131058358062</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.8282263490681345</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.825823436288195</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8269212445720535</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3946711712511565</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8120135707461653</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.811184886748145</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8115990172150516</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3822026462244058</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8224689879127918</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.8213282345623243</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3755684741584862</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.827879927935566</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8311338382971382</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8282104486229799</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8295628544867691</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3965321970567859</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8155045474231269</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8165356997696789</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8155168921200118</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8160259779498763</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.381264666325505</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.8240901213171578</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.8266420043108668</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.8240901213171576</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.8253640903235298</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3719161879098001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8288072276388301</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8325038698513264</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8288435521223869</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8305511753919725</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3941403161376643</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8124729320051971</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8144219736087206</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.8124899652629289</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8134548222759328</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3805073551042013</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.825915294549364</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8243498329848657</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.463165630910214</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7992705242334323</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8044895468534345</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.7990458386158551</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8016407330751678</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.4679362607028252</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7886530965786055</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.7911980044107608</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.7886733139766069</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7899336419212282</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.4531033011515532</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8024263431542461</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8055133281750186</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.8024263431542461</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.8039668724077739</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3753581193507645</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8296859545004946</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8328748881705327</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8301463623335678</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8314022333542636</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3952412432249821</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8111736682546556</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8125243940113174</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8111878877910074</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8118555908502398</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3810471466688674</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8281900474392487</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.8258232235701907</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.8270049420916966</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3707104159922064</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8335806132542039</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8370164737121142</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8334549586598557</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8351299214008265</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3931857875727882</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8120398440883499</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.813394290106015</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.812054063787166</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8127236244200887</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.3820891240196104</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8287749287749289</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.8275137978311015</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3675319659514592</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.83135509396637</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8350899768254785</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8311421458331171</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.8330233532814705</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3923334656843725</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8129060199220441</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.814647771507891</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8129221154351137</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8137840286447705</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.379978617827418</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.8201906412478336</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8229672482914441</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.8201906412478337</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.8215765988153263</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3989464957170282</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8178165182987142</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8221613700104407</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.817975412664226</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8199522424066287</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.4169456756558208</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8003464703334777</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8023044383733766</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8003638764470653</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8013329825630754</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3970970628210003</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.8184575389948007</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.8214314136403427</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.8184575389948008</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.8199417798147406</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3702938673245725</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8304277942631059</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8334603345673698</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8306783105028703</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8319699087395166</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3962109044793565</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8103074924209615</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8118009121405149</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8103224620555642</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8110610133469893</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.3809840577233513</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8249566724436742</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8276175334998864</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.8249566724436741</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.8262849608042653</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3663706232621226</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8320969337289813</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8357802516419646</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8324125281444978</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8339910912535753</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3944428678619273</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8137721957557384</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8152821227997438</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.813787166040199</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8145339584774739</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3804484420443037</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8291934219050108</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.8262564991334489</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.8277223553315838</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3562208378535648</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8376607319485658</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8418177297999815</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8376458693821019</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8396158113600034</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3916733269127297</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8107405803378086</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8120539884880813</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8107546122277491</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8114037801552663</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.3777104671771396</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.8255894451652582</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.8227902946273831</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.8241874932462246</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +4740,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 08:59:22</t>
+          <t>2025-11-13 11:24:49</t>
         </is>
       </c>
     </row>

--- a/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_val_test.xlsx
@@ -558,52 +558,52 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4301603025582826</v>
+        <v>0.4249550607955911</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8020082662144977</v>
+        <v>0.8043265154726579</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8055233222190668</v>
+        <v>0.8091346178772235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8016710856413705</v>
+        <v>0.8045990165753726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8034870602144837</v>
+        <v>0.8067450372317542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4447749411181744</v>
+        <v>0.4387318121882802</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7838891294932872</v>
+        <v>0.7825898657427458</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7856614427635353</v>
+        <v>0.7847233875295736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7839061573896929</v>
+        <v>0.782608581482065</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7847828185875904</v>
+        <v>0.7836645577485314</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4253525895537421</v>
+        <v>0.4206792072339338</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8028596187175043</v>
+        <v>0.8080589254766031</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8042856334521586</v>
+        <v>0.8097393640273887</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8028596187175043</v>
+        <v>0.8080589254766031</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8035719934357226</v>
+        <v>0.8088982719998916</v>
       </c>
     </row>
     <row r="3">
@@ -626,49 +626,49 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.384422845642245</v>
+        <v>0.3853972297377203</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8223602868447083</v>
+        <v>0.8221748269040554</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8254391978797533</v>
+        <v>0.8261295780711122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8227426522211665</v>
+        <v>0.8224931016349969</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8239968051836145</v>
+        <v>0.8241998494250743</v>
       </c>
       <c r="L3" t="n">
-        <v>0.398727473766068</v>
+        <v>0.4033071041386061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.808575140753573</v>
+        <v>0.8094413165872673</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8095234332552199</v>
+        <v>0.8113291215675618</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8085871090203847</v>
+        <v>0.8094581617111947</v>
       </c>
       <c r="P3" t="n">
-        <v>0.809055000234471</v>
+        <v>0.8103925617657821</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3863045569158255</v>
+        <v>0.3856010496296048</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8253899480069324</v>
+        <v>0.8197573656845754</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8279016885922597</v>
+        <v>0.8231359729001239</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8253899480069324</v>
+        <v>0.8197573656845754</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8266439103359227</v>
+        <v>0.8214431952424984</v>
       </c>
     </row>
     <row r="4">
@@ -688,52 +688,52 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3788210244720143</v>
+        <v>0.3797217278871278</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8249567260138477</v>
+        <v>0.8255131058358062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8286346182251999</v>
+        <v>0.8291152002161353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8250259563446581</v>
+        <v>0.8257745988359696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8267172783919743</v>
+        <v>0.8273386908906111</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3965571062476371</v>
+        <v>0.4003200258915164</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8098744045041143</v>
+        <v>0.808575140753573</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8109184552199258</v>
+        <v>0.8096462884528809</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8098869357101592</v>
+        <v>0.8085878592811002</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8104023672231373</v>
+        <v>0.8091167277266272</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3796335772837804</v>
+        <v>0.3802405820285099</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8271230502599654</v>
+        <v>0.8262564991334489</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8291699252324444</v>
+        <v>0.8284826161212255</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8271230502599654</v>
+        <v>0.8262564991334489</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8281452229647879</v>
+        <v>0.8273680602321292</v>
       </c>
     </row>
     <row r="5">
@@ -756,49 +756,49 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3786165621852529</v>
+        <v>0.3760244843478628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8250494559841741</v>
+        <v>0.8270895153313551</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8283764840631317</v>
+        <v>0.8303858949952454</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8259394872870817</v>
+        <v>0.8276764359996553</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8270469252957989</v>
+        <v>0.8289218423219866</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3926690148594194</v>
+        <v>0.3938609116135889</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8103074924209615</v>
+        <v>0.8129060199220441</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8109358766758531</v>
+        <v>0.8135894671310249</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8103172102305551</v>
+        <v>0.812916113349389</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8106264254123585</v>
+        <v>0.8132526508600165</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3821192609740729</v>
+        <v>0.3806349644042084</v>
       </c>
       <c r="R5" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8263784156894967</v>
+        <v>0.8257347968893397</v>
       </c>
       <c r="T5" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8240901213171576</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8254498640985719</v>
+        <v>0.8249116393320998</v>
       </c>
     </row>
     <row r="6">
@@ -818,52 +818,52 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.422302285848319</v>
+        <v>0.4143240523972617</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8046047053836372</v>
+        <v>0.8082211742263671</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8092418349305451</v>
+        <v>0.8128671972774086</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8045309195186041</v>
+        <v>0.8088089648506827</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8067614162172968</v>
+        <v>0.8107090872523275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4364393957333203</v>
+        <v>0.4287648215530224</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7860545690775227</v>
+        <v>0.790818536162841</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7878800118988477</v>
+        <v>0.7927149452471242</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7860717849452685</v>
+        <v>0.79083594048932</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7869748597356376</v>
+        <v>0.7917743280764867</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.41682201912825</v>
+        <v>0.4081427602939048</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8093587521663779</v>
+        <v>0.8141247833622184</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8115145557655954</v>
+        <v>0.8160043662349533</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8093587521663779</v>
+        <v>0.8141247833622184</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8104352203285963</v>
+        <v>0.8150634911937142</v>
       </c>
     </row>
     <row r="7">
@@ -883,52 +883,52 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3833869786558489</v>
+        <v>0.3832870681501166</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8231948565776459</v>
+        <v>0.8227312067260139</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8267363290224217</v>
+        <v>0.8261942998131671</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8237195032737519</v>
+        <v>0.8232198466111407</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8251237016539215</v>
+        <v>0.8245980321293557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3984408300760729</v>
+        <v>0.4012722419508462</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8116067561715028</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8125968448914132</v>
+        <v>0.8125344253117466</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8111882629213651</v>
+        <v>0.811618537441761</v>
       </c>
       <c r="P7" t="n">
-        <v>0.811891942956345</v>
+        <v>0.81207622313427</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3840191535721026</v>
+        <v>0.3840752183413413</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="S7" t="n">
-        <v>0.828508877141096</v>
+        <v>0.8245089156290899</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8219237435008666</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8267289591222565</v>
+        <v>0.823214299990645</v>
       </c>
     </row>
     <row r="8">
@@ -948,52 +948,52 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378572702303916</v>
+        <v>0.377771643886359</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8243076162215629</v>
+        <v>0.8260694856577646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8277444860110514</v>
+        <v>0.8297926024007718</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8246397567930283</v>
+        <v>0.8263451559004379</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8260874786391481</v>
+        <v>0.8279512040929217</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3975839759154334</v>
+        <v>0.3967379592558131</v>
       </c>
       <c r="M8" t="n">
-        <v>0.808575140753573</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8096462884528809</v>
+        <v>0.8150629619697047</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8085878592811002</v>
+        <v>0.8137860406491255</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8091167277266272</v>
+        <v>0.8144240007940032</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.379804650833333</v>
+        <v>0.3790345580525364</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8280937618147448</v>
+        <v>0.8264635107898629</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8269569341668689</v>
+        <v>0.8250577913645891</v>
       </c>
     </row>
     <row r="9">
@@ -1016,49 +1016,49 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3744204023377544</v>
+        <v>0.3754951680937677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.827274975272008</v>
+        <v>0.8269040553907023</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8304805939020395</v>
+        <v>0.8304469022683526</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8276838697138305</v>
+        <v>0.8274097681397867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8289683137426112</v>
+        <v>0.8288111774246874</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3941163809773006</v>
+        <v>0.395244563291406</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8137721957557384</v>
+        <v>0.815937635339974</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8143593752348882</v>
+        <v>0.8168190127970749</v>
       </c>
       <c r="O9" t="n">
-        <v>0.813781539084832</v>
+        <v>0.8159490422921966</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8140703546212489</v>
+        <v>0.8163837957760521</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3791495288473982</v>
+        <v>0.3805858605235803</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8275563258232236</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8292185915084771</v>
+        <v>0.8257347968893397</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8275563258232236</v>
+        <v>0.8240901213171576</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8283866247785252</v>
+        <v>0.8249116393320998</v>
       </c>
     </row>
     <row r="10">
@@ -1078,52 +1078,52 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4167488845991178</v>
+        <v>0.4141936206415134</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8090557439593048</v>
+        <v>0.8097048537515896</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8137543230815251</v>
+        <v>0.8134172835323615</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8093531761677273</v>
+        <v>0.8095779650209508</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8114217511078209</v>
+        <v>0.8113912169174529</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4324416346433246</v>
+        <v>0.427364729420935</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7925508878302295</v>
+        <v>0.794283239497618</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7948037073716518</v>
+        <v>0.7959608808892189</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7925697930030686</v>
+        <v>0.7942995190828812</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7936851782909524</v>
+        <v>0.7951293321649524</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4105513726239103</v>
+        <v>0.408152151187475</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8145580589254766</v>
+        <v>0.8141247833622184</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8167500945179584</v>
+        <v>0.8156800525221578</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8145580589254766</v>
+        <v>0.8141247833622184</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8156526039711435</v>
+        <v>0.8149016758710804</v>
       </c>
     </row>
     <row r="11">
@@ -1146,49 +1146,49 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3815769559271752</v>
+        <v>0.3811192759100876</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8244930761622157</v>
+        <v>0.8226384767556875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.828112468054097</v>
+        <v>0.826267182984148</v>
       </c>
       <c r="J11" t="n">
-        <v>0.824886102365324</v>
+        <v>0.8231057868848015</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8263948786442613</v>
+        <v>0.8245839887640324</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3992849992030231</v>
+        <v>0.3967672202313081</v>
       </c>
       <c r="M11" t="n">
         <v>0.8098744045041143</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8114804413663292</v>
+        <v>0.8112553861364352</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8098899367530217</v>
+        <v>0.8098888113619482</v>
       </c>
       <c r="P11" t="n">
-        <v>0.810684408946458</v>
+        <v>0.8105715227589073</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3820903499720025</v>
+        <v>0.3819791042509616</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8184575389948007</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8216517973956592</v>
+        <v>0.8248952556247124</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8184575389948007</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8200515576444559</v>
+        <v>0.8236241817712084</v>
       </c>
     </row>
     <row r="12">
@@ -1208,25 +1208,25 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.377778911826943</v>
+        <v>0.3757955956014573</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8243076162215629</v>
+        <v>0.8269967853610287</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8284804764831744</v>
+        <v>0.8308605817797416</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8245358644479072</v>
+        <v>0.8276759802571187</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8263881828620885</v>
+        <v>0.8291503809516386</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3966472104595165</v>
+        <v>0.3952385051087736</v>
       </c>
       <c r="M12" t="n">
         <v>0.8116067561715028</v>
@@ -1241,19 +1241,19 @@
         <v>0.8123445692136303</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.380558931895212</v>
+        <v>0.380548667302645</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8259738882830485</v>
+        <v>0.8272324866301051</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8232235701906412</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="U12" t="n">
-        <v>0.824596435924552</v>
+        <v>0.8258757201293698</v>
       </c>
     </row>
     <row r="13">
@@ -1273,52 +1273,52 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3736160458080934</v>
+        <v>0.3724200560555206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8298714144411474</v>
+        <v>0.8286217676981772</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8337035822926238</v>
+        <v>0.8320650275186477</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8305663292776136</v>
+        <v>0.8290774257502809</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8320190883283339</v>
+        <v>0.8304539925687566</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3953540259169638</v>
+        <v>0.3945707575958505</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8163707232568211</v>
+        <v>0.8133391078388913</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8171682596700873</v>
+        <v>0.8142133297221658</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8163815675947392</v>
+        <v>0.8133505143037205</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8167747242031069</v>
+        <v>0.8137816933121</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3808212576875414</v>
+        <v>0.3797876974550935</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8266897746967071</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8287794010513493</v>
+        <v>0.8281900474392487</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8266897746967071</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8277332690520393</v>
+        <v>0.8270049420916966</v>
       </c>
     </row>
     <row r="14">
@@ -1338,52 +1338,52 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4097964256910059</v>
+        <v>0.4071574637869596</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8115594531581178</v>
+        <v>0.8137849724459517</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8146743750819341</v>
+        <v>0.8176389535908445</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8115799613610216</v>
+        <v>0.8141256214669943</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8130262615340493</v>
+        <v>0.8157734681175949</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4257896854076975</v>
+        <v>0.4196102873569331</v>
       </c>
       <c r="M14" t="n">
-        <v>0.797747942832395</v>
+        <v>0.7999133824166306</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7996059425672615</v>
+        <v>0.802362879474314</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7977649733282316</v>
+        <v>0.7999328516659538</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7986843970896499</v>
+        <v>0.8011460228905853</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4050841148473656</v>
+        <v>0.4028320466258935</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8132582322357019</v>
+        <v>0.8158578856152513</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8148092109979588</v>
+        <v>0.8181997329631633</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8132582322357018</v>
+        <v>0.8158578856152513</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8140329828467225</v>
+        <v>0.8170271311816123</v>
       </c>
     </row>
     <row r="15">
@@ -1406,49 +1406,49 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3805287805984743</v>
+        <v>0.379794746188057</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8225457467853611</v>
+        <v>0.8256058358061326</v>
       </c>
       <c r="I15" t="n">
-        <v>0.826334467540064</v>
+        <v>0.8290273495383911</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8228231350452273</v>
+        <v>0.8261519754873354</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8244689705749466</v>
+        <v>0.8274865782546501</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3941118414863288</v>
+        <v>0.3962985788850363</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8137721957557384</v>
+        <v>0.8090082286704201</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8155187241618638</v>
+        <v>0.8105331011241037</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8137882914312724</v>
+        <v>0.8090233856265052</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8146525888790754</v>
+        <v>0.8097775397132517</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3815089549999325</v>
+        <v>0.3804313086340719</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8259738882830485</v>
+        <v>0.8253128182744072</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8232235701906412</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="U15" t="n">
-        <v>0.824596435924552</v>
+        <v>0.8238322674254387</v>
       </c>
     </row>
     <row r="16">
@@ -1468,52 +1468,52 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3747866984636663</v>
+        <v>0.3753079292838244</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8265331355093967</v>
+        <v>0.8268113254203759</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8301084186319518</v>
+        <v>0.829638562479591</v>
       </c>
       <c r="J16" t="n">
-        <v>0.826994713224199</v>
+        <v>0.8271672640988565</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8284450479611034</v>
+        <v>0.8283028875878005</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3910863629334663</v>
+        <v>0.3926905663949615</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8129060199220441</v>
+        <v>0.8124729320051971</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8138080397987191</v>
+        <v>0.8134031471130896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8129176138708201</v>
+        <v>0.8124847134379196</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8133625831371518</v>
+        <v>0.8129436708724929</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3799204705007936</v>
+        <v>0.3813858535468366</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8265421618562536</v>
+        <v>0.8246034026465028</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8253143203140737</v>
+        <v>0.8234786788697442</v>
       </c>
     </row>
     <row r="17">
@@ -1533,52 +1533,52 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3708055663569039</v>
+        <v>0.3707273746022068</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8309400169563375</v>
+        <v>0.8299641444114738</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8343120624188946</v>
+        <v>0.833077308412759</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8312602800555893</v>
+        <v>0.8301935764114293</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8326794200732892</v>
+        <v>0.8315351104669289</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3944925461161062</v>
+        <v>0.3933104389380749</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8150714595062798</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8162640259055651</v>
+        <v>0.8145094338203777</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8150847419478269</v>
+        <v>0.8137826644759054</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8156739576810395</v>
+        <v>0.8141458869555962</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3790884025036556</v>
+        <v>0.3773951677687608</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8261631193453703</v>
+        <v>0.8265259002381319</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8249566724436741</v>
       </c>
       <c r="U17" t="n">
-        <v>0.825125318312665</v>
+        <v>0.8257405408059783</v>
       </c>
     </row>
     <row r="18">
@@ -1598,52 +1598,52 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4639699618249474</v>
+        <v>0.4313745651767323</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7964400522820403</v>
+        <v>0.8021009961848241</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7992969553086224</v>
+        <v>0.8059895516144511</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7962346139891318</v>
+        <v>0.8020047727079538</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7976672100236123</v>
+        <v>0.8038741185486522</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4746517486952717</v>
+        <v>0.4428497394537284</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7847553053269813</v>
+        <v>0.7899523603291468</v>
       </c>
       <c r="N18" t="n">
-        <v>0.786025509827297</v>
+        <v>0.7921853383430226</v>
       </c>
       <c r="O18" t="n">
-        <v>0.784769707473347</v>
+        <v>0.7899712650145925</v>
       </c>
       <c r="P18" t="n">
-        <v>0.785397106662687</v>
+        <v>0.7910767524893363</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4567242695884783</v>
+        <v>0.4270587949486381</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7972270363951474</v>
+        <v>0.8037261698440208</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7983885801473316</v>
+        <v>0.805543532042348</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7972270363951472</v>
+        <v>0.8037261698440208</v>
       </c>
       <c r="U18" t="n">
-        <v>0.79780738549276</v>
+        <v>0.8046338247617568</v>
       </c>
     </row>
     <row r="19">
@@ -1663,52 +1663,52 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3825126100649295</v>
+        <v>0.3827199618723405</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8230093966369931</v>
+        <v>0.8239366963402572</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8267978138492729</v>
+        <v>0.827653113597785</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8232370780452288</v>
+        <v>0.8239773818360329</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8248949150836304</v>
+        <v>0.8256983732171911</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3975328647892403</v>
+        <v>0.4014406280775999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.808575140753573</v>
+        <v>0.8090082286704201</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8100603068109005</v>
+        <v>0.8102452972023495</v>
       </c>
       <c r="O19" t="n">
-        <v>0.808590110063247</v>
+        <v>0.809021885105074</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8093245407578595</v>
+        <v>0.8096331289887349</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3849992058662445</v>
+        <v>0.3842466387871378</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8180242634315424</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8207303404822488</v>
+        <v>0.8285401157135199</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8180242634315424</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8193750676830798</v>
+        <v>0.826962031867422</v>
       </c>
     </row>
     <row r="20">
@@ -1731,49 +1731,49 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3781407498032754</v>
+        <v>0.3769830174608956</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8264889783806698</v>
+        <v>0.8262549455984175</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8301689425115649</v>
+        <v>0.8300176106573554</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8269880676315224</v>
+        <v>0.8267989721796717</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8284611590962598</v>
+        <v>0.8282884318587465</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3961069366599824</v>
+        <v>0.3948868565413023</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8129060199220441</v>
+        <v>0.8116067561715028</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8135395852409154</v>
+        <v>0.8124762076722263</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8129157382190311</v>
+        <v>0.8116181623114032</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8132275420878592</v>
+        <v>0.8120469583295423</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3832957362667224</v>
+        <v>0.3800451387855321</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.8249566724436742</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8276428657726229</v>
+        <v>0.8279363087443621</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.8249566724436741</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8267320434117601</v>
+        <v>0.8264438049293727</v>
       </c>
     </row>
     <row r="21">
@@ -1793,52 +1793,52 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3763694626869616</v>
+        <v>0.3720896748334494</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8280168150346192</v>
+        <v>0.8281095450049456</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8319643116549004</v>
+        <v>0.8318069561117672</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8281757686493587</v>
+        <v>0.8286499395824024</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8299413631535141</v>
+        <v>0.8301095661202218</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3974015951984358</v>
+        <v>0.3886053396913637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.808575140753573</v>
+        <v>0.8142052836725855</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8095234332552199</v>
+        <v>0.8153946080277129</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8085871090203847</v>
+        <v>0.8142185659516682</v>
       </c>
       <c r="P21" t="n">
-        <v>0.809055000234471</v>
+        <v>0.8148061626328595</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3806964625507238</v>
+        <v>0.3790719463436853</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8253899480069324</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8284285600597243</v>
+        <v>0.830623484698817</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8253899480069324</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8269064625652313</v>
+        <v>0.8293044517347484</v>
       </c>
     </row>
     <row r="22">
@@ -1858,52 +1858,52 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4305820862022966</v>
+        <v>0.4259487508017914</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8021009961848241</v>
+        <v>0.8053465451462485</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8056895195379548</v>
+        <v>0.8107731157620316</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8021166302576161</v>
+        <v>0.8053710563038982</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8037934347423856</v>
+        <v>0.8079459339593807</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4432051612244343</v>
+        <v>0.4400051596953842</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7864876569943698</v>
+        <v>0.7890861844954525</v>
       </c>
       <c r="N22" t="n">
-        <v>0.787973657380036</v>
+        <v>0.7918788166160941</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7865031848567376</v>
+        <v>0.7891073398005808</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7872377344492076</v>
+        <v>0.7904906490018235</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4247343338961632</v>
+        <v>0.4195357458453701</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8045927209705372</v>
+        <v>0.8076256499133448</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8059548781214478</v>
+        <v>0.810446372277996</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8045927209705372</v>
+        <v>0.807625649913345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.805273223508344</v>
+        <v>0.8090335524675781</v>
       </c>
     </row>
     <row r="23">
@@ -1923,52 +1923,52 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3804923993157937</v>
+        <v>0.3795822853378527</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8243076162215629</v>
+        <v>0.8240294263105836</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8267378319457612</v>
+        <v>0.827219924585924</v>
       </c>
       <c r="J23" t="n">
-        <v>0.824926603454047</v>
+        <v>0.8244257338616554</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8257355173221284</v>
+        <v>0.8257153845051293</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3938897810568631</v>
+        <v>0.3965730122205041</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8090082286704201</v>
+        <v>0.8120398440883499</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8101128011456296</v>
+        <v>0.8129393990465643</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8090211348443584</v>
+        <v>0.8120514378746615</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8095665999787086</v>
+        <v>0.8124951758515394</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3840513630981071</v>
+        <v>0.3809639904047858</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8223570190641247</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8247959470869688</v>
+        <v>0.8266448335571819</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8223570190641247</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8235746774236059</v>
+        <v>0.82558275239777</v>
       </c>
     </row>
     <row r="24">
@@ -1988,52 +1988,52 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.376746174911938</v>
+        <v>0.3743106727087768</v>
       </c>
       <c r="H24" t="n">
-        <v>0.825839868588385</v>
+        <v>0.8293636074607885</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8291191227447005</v>
+        <v>0.8325987260373885</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8266082070314185</v>
+        <v>0.8296771495043049</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8277537960787075</v>
+        <v>0.8310318099814223</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3949541014858197</v>
+        <v>0.3919279558773964</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8163707232568211</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8172244664605478</v>
+        <v>0.8145632703653227</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8163819427250969</v>
+        <v>0.8137830396062632</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8168029873292756</v>
+        <v>0.8141729680599425</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3822139071257362</v>
+        <v>0.3813008765999063</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8219237435008665</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8235977225705695</v>
+        <v>0.8301336969329596</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8219237435008666</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="U24" t="n">
-        <v>0.822759881571309</v>
+        <v>0.8290602629100621</v>
       </c>
     </row>
     <row r="25">
@@ -2053,52 +2053,52 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3707355529155497</v>
+        <v>0.3705032641245234</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8290854175498092</v>
+        <v>0.8317260138476756</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8327846503463343</v>
+        <v>0.8354583585671714</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8291977209708163</v>
+        <v>0.831470349540953</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8308602682272453</v>
+        <v>0.8333512063329008</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3925955285245391</v>
+        <v>0.3945261169114772</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8181030749242096</v>
+        <v>0.8111736682546556</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8187470023710399</v>
+        <v>0.8127475064619356</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8181127941959832</v>
+        <v>0.8111890131820807</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8184297754202065</v>
+        <v>0.8119675119783351</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3761816370884642</v>
+        <v>0.3756313816709733</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8266897746967071</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8286006048466281</v>
+        <v>0.826056516493118</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8266897746967071</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8276440868618981</v>
+        <v>0.8248549358446656</v>
       </c>
     </row>
     <row r="26">
@@ -2118,52 +2118,52 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4084277579826822</v>
+        <v>0.4120348578706984</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8144296665253637</v>
+        <v>0.8103539635438746</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8173330281019375</v>
+        <v>0.8150226846734333</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8145911809305861</v>
+        <v>0.8102333963738845</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8158666462054177</v>
+        <v>0.8124912476005752</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4238107008517547</v>
+        <v>0.4260214662129577</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7955825032481594</v>
+        <v>0.7960155911650065</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7971525713139321</v>
+        <v>0.7979455778614437</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7955982203815826</v>
+        <v>0.796032996466272</v>
       </c>
       <c r="P26" t="n">
-        <v>0.796374637409327</v>
+        <v>0.7969881397307454</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4041774744353439</v>
+        <v>0.4087063351928523</v>
       </c>
       <c r="R26" t="n">
-        <v>0.8188908145580589</v>
+        <v>0.8149913344887348</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8205894342699258</v>
+        <v>0.8168761024176704</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8188908145580589</v>
+        <v>0.8149913344887348</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8197392444677633</v>
+        <v>0.815932630022223</v>
       </c>
     </row>
     <row r="27">
@@ -2186,49 +2186,49 @@
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.378239764980192</v>
+        <v>0.377982300186103</v>
       </c>
       <c r="H27" t="n">
-        <v>0.824771266073195</v>
+        <v>0.8248639960435213</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8280418323664841</v>
+        <v>0.8284642053062612</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8250863978885841</v>
+        <v>0.8250523023851657</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8264585073200734</v>
+        <v>0.8266417335742005</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3953533127683992</v>
+        <v>0.3963210921614084</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8107405803378086</v>
+        <v>0.8133391078388913</v>
       </c>
       <c r="N27" t="n">
-        <v>0.811851272946849</v>
+        <v>0.814885139363234</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8107534868366757</v>
+        <v>0.8133542656072985</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8113020085338157</v>
+        <v>0.8141189828200717</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3816341119098158</v>
+        <v>0.3801280864408791</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8238258180850033</v>
+        <v>0.826056516493118</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8226564856216728</v>
+        <v>0.8248549358446656</v>
       </c>
     </row>
     <row r="28">
@@ -2248,52 +2248,52 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3736311754715158</v>
+        <v>0.3729072465472237</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8268113254203759</v>
+        <v>0.8286659248269042</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8297106206891918</v>
+        <v>0.8321106783869254</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8269098455980589</v>
+        <v>0.8289679615962168</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8282051962699772</v>
+        <v>0.8304244337520273</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3945185305121097</v>
+        <v>0.3934549729629362</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8133391078388913</v>
+        <v>0.8124729320051971</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8143323223276712</v>
+        <v>0.8136557722720084</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8133512645644361</v>
+        <v>0.8124862139593509</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8138414977883648</v>
+        <v>0.8130705725292061</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3800187164886557</v>
+        <v>0.3802292412186442</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8248638482345554</v>
+        <v>0.8260734231076082</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8232235701906412</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8240428929597615</v>
+        <v>0.8250805803650643</v>
       </c>
     </row>
     <row r="29">
@@ -2313,52 +2313,52 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.37042982730274</v>
+        <v>0.3698100883744494</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8319114737883284</v>
+        <v>0.831818743818002</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8350647896691716</v>
+        <v>0.8347644030455036</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8323232833773793</v>
+        <v>0.8320244056560737</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8335835782664351</v>
+        <v>0.8333045671705096</v>
       </c>
       <c r="L29" t="n">
-        <v>0.394745276739442</v>
+        <v>0.3984226466258792</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8103074924209615</v>
+        <v>0.8098744045041143</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8116544979166196</v>
+        <v>0.8107969817090606</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8103217117948487</v>
+        <v>0.8098861854494437</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8109875572771582</v>
+        <v>0.8103413276532812</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3793528413952473</v>
+        <v>0.3809612372585581</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8272211720226843</v>
+        <v>0.8240281860253487</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8219237435008666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8260873703547418</v>
+        <v>0.8229746194387821</v>
       </c>
     </row>
     <row r="30">
@@ -2378,52 +2378,52 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.40348480938885</v>
+        <v>0.399574227263386</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8169377914370496</v>
+        <v>0.8146195421788894</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8213751869001946</v>
+        <v>0.8186470147476835</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8171210917001333</v>
+        <v>0.8148252173714459</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8191167877882471</v>
+        <v>0.8166227679608985</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4193008682621195</v>
+        <v>0.4130991045387077</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8007795582503248</v>
+        <v>0.8003464703334777</v>
       </c>
       <c r="N30" t="n">
-        <v>0.803736473361879</v>
+        <v>0.8025673988488234</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8008009033139016</v>
+        <v>0.8003650018381387</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8022660029621453</v>
+        <v>0.8014646873187924</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3989693577819487</v>
+        <v>0.395570113367739</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8201906412478336</v>
+        <v>0.8197573656845754</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8234022833678805</v>
+        <v>0.8224781897491821</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8201906412478337</v>
+        <v>0.8197573656845754</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8217933244733748</v>
+        <v>0.8211155238125694</v>
       </c>
     </row>
     <row r="31">
@@ -2446,49 +2446,49 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3750081833183029</v>
+        <v>0.3747366478499182</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8270895153313551</v>
+        <v>0.8259767556874382</v>
       </c>
       <c r="I31" t="n">
-        <v>0.831419565928935</v>
+        <v>0.8295824143264316</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8275299058927897</v>
+        <v>0.8262647148220389</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8293525524051825</v>
+        <v>0.8278131365815602</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3937670876016329</v>
+        <v>0.3946003217787425</v>
       </c>
       <c r="M31" t="n">
-        <v>0.808575140753573</v>
+        <v>0.8111736682546556</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8100603068109005</v>
+        <v>0.8126712148053221</v>
       </c>
       <c r="O31" t="n">
-        <v>0.808590110063247</v>
+        <v>0.811188638051723</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8093245407578595</v>
+        <v>0.8119292496355633</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3784947025738228</v>
+        <v>0.3802687044693456</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8254849166080483</v>
+        <v>0.82985384166319</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="U31" t="n">
-        <v>0.8241354030159994</v>
+        <v>0.8284861957124269</v>
       </c>
     </row>
     <row r="32">
@@ -2511,49 +2511,49 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3700759619086954</v>
+        <v>0.3692313959500195</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8310769040553908</v>
+        <v>0.8305205242334323</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8340127610403982</v>
+        <v>0.8337261677551834</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8313070793592058</v>
+        <v>0.8310583231895118</v>
       </c>
       <c r="K32" t="n">
-        <v>0.832557684590546</v>
+        <v>0.8322897702824538</v>
       </c>
       <c r="L32" t="n">
-        <v>0.392342292954982</v>
+        <v>0.3940385470824739</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8137721957557384</v>
+        <v>0.8133391078388913</v>
       </c>
       <c r="N32" t="n">
-        <v>0.814736258294841</v>
+        <v>0.8143323223276712</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8137841649973365</v>
+        <v>0.8133512645644361</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8142599333316033</v>
+        <v>0.8138414977883648</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3794520520300713</v>
+        <v>0.3786061332558489</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8275563258232236</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8264443556975506</v>
+        <v>0.8303435114503817</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.8275563258232235</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8252655595301516</v>
+        <v>0.8289475757920945</v>
       </c>
     </row>
     <row r="33">
@@ -2573,52 +2573,52 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3654661882259773</v>
+        <v>0.3652593940299282</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8335364561254769</v>
+        <v>0.8328387734915925</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8367039525379282</v>
+        <v>0.8359843685683476</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8339422383223831</v>
+        <v>0.8326945851526647</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8352193630222327</v>
+        <v>0.8342409121659092</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3959012951360305</v>
+        <v>0.3915272030959226</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8120398440883499</v>
+        <v>0.8116067561715028</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8129986499483006</v>
+        <v>0.8133009738031123</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8120518130050193</v>
+        <v>0.8116226638756967</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8125249556390113</v>
+        <v>0.812460952114302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.380235786156999</v>
+        <v>0.3783929842006841</v>
       </c>
       <c r="R33" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8232235701906413</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8266448335571819</v>
+        <v>0.8253824987905176</v>
       </c>
       <c r="T33" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8232235701906412</v>
       </c>
       <c r="U33" t="n">
-        <v>0.82558275239777</v>
+        <v>0.8243016208803825</v>
       </c>
     </row>
     <row r="34">
@@ -2638,52 +2638,52 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6906061199850571</v>
+        <v>0.6888260370269131</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7005528472516603</v>
+        <v>0.7557757524374734</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7059028198989801</v>
+        <v>0.7754811584131446</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7000487469195916</v>
+        <v>0.7566907194466661</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7028723721065682</v>
+        <v>0.7657055222403989</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6906403325077886</v>
+        <v>0.6889022496274653</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6951061065396276</v>
+        <v>0.75487223906453</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6999600089210868</v>
+        <v>0.77103893659044</v>
       </c>
       <c r="O34" t="n">
-        <v>0.695072287619948</v>
+        <v>0.7549250864675474</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6975075858094271</v>
+        <v>0.7628969321425011</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6904328999309397</v>
+        <v>0.6887462830035529</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7222703639514731</v>
+        <v>0.7569324090121318</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7267951426161191</v>
+        <v>0.774124635974347</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7222703639514731</v>
+        <v>0.7569324090121317</v>
       </c>
       <c r="U34" t="n">
-        <v>0.7245256888612869</v>
+        <v>0.7654319968056799</v>
       </c>
     </row>
     <row r="35">
@@ -2703,52 +2703,52 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3881134193547768</v>
+        <v>0.3864198693634389</v>
       </c>
       <c r="H35" t="n">
-        <v>0.821618447082097</v>
+        <v>0.8217111770524234</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8245961779987699</v>
+        <v>0.8253522297616672</v>
       </c>
       <c r="J35" t="n">
-        <v>0.822202141145762</v>
+        <v>0.8222932654001918</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8232948390528001</v>
+        <v>0.8236943942199404</v>
       </c>
       <c r="L35" t="n">
-        <v>0.406625718722618</v>
+        <v>0.398272743836474</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8107405803378086</v>
+        <v>0.8094413165872673</v>
       </c>
       <c r="N35" t="n">
-        <v>0.811851272946849</v>
+        <v>0.8105154353563992</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8107534868366757</v>
+        <v>0.8094540352772588</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8113020085338157</v>
+        <v>0.8099843876034466</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3890824545572588</v>
+        <v>0.3859369108736043</v>
       </c>
       <c r="R35" t="n">
-        <v>0.8184575389948007</v>
+        <v>0.8266897746967071</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8214314136403427</v>
+        <v>0.8291614840101806</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8184575389948008</v>
+        <v>0.8266897746967071</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8199417798147406</v>
+        <v>0.8279237845781666</v>
       </c>
     </row>
     <row r="36">
@@ -2768,52 +2768,52 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.378535025806685</v>
+        <v>0.3796986275047557</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8267185954500496</v>
+        <v>0.8251421859545005</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8299986496898809</v>
+        <v>0.8289797405896476</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8267323279390533</v>
+        <v>0.8255285887699417</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8282442005001335</v>
+        <v>0.827134410627376</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3995971156241696</v>
+        <v>0.3943657110184269</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8046773495019489</v>
+        <v>0.8168038111736683</v>
       </c>
       <c r="N36" t="n">
-        <v>0.806035411727648</v>
+        <v>0.8180717437447933</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8046917553849964</v>
+        <v>0.8168174690705019</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8053630231223753</v>
+        <v>0.8174441252726122</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3814078821329498</v>
+        <v>0.3838841151118503</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="S36" t="n">
-        <v>0.827827994654756</v>
+        <v>0.82461113159702</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8249566724436741</v>
+        <v>0.8219237435008666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.8263898394278077</v>
+        <v>0.823265244441804</v>
       </c>
     </row>
     <row r="37">
@@ -2833,52 +2833,52 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3712835073850867</v>
+        <v>0.3743817637078882</v>
       </c>
       <c r="H37" t="n">
-        <v>0.82773862512364</v>
+        <v>0.8266258654797231</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8318877061053637</v>
+        <v>0.8299944802879843</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8282405239402025</v>
+        <v>0.8266821840677111</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8299277118255597</v>
+        <v>0.8282111838498515</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3881024442831563</v>
+        <v>0.3915644789343808</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8142052836725855</v>
+        <v>0.8120398440883499</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8149702409154698</v>
+        <v>0.8127730694320157</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8142159400391636</v>
+        <v>0.8120503124835881</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8145929158595172</v>
+        <v>0.8124115302087591</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3751728693151565</v>
+        <v>0.3784525168794</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.82105719237435</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8258164359156311</v>
+        <v>0.8229782556966903</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.82105719237435</v>
       </c>
       <c r="U37" t="n">
-        <v>0.8249523754858261</v>
+        <v>0.8220166016496577</v>
       </c>
     </row>
     <row r="38">
@@ -2898,52 +2898,52 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6268203668322878</v>
+        <v>0.4798848907409945</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7776600254345061</v>
+        <v>0.79648862512364</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8098505149693656</v>
+        <v>0.8032111993411145</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7783038682316809</v>
+        <v>0.7961266268318878</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7933534990141272</v>
+        <v>0.7995097478785069</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6262279371849675</v>
+        <v>0.4842595334234191</v>
       </c>
       <c r="M38" t="n">
-        <v>0.772628843655262</v>
+        <v>0.7856214811606756</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8003805722219468</v>
+        <v>0.7888970333812897</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7726946363861442</v>
+        <v>0.7856445114677351</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7862939697216335</v>
+        <v>0.7872674130660906</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6215847584627705</v>
+        <v>0.4703108742555267</v>
       </c>
       <c r="R38" t="n">
-        <v>0.7824956672443674</v>
+        <v>0.7924610051993067</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8129514955295496</v>
+        <v>0.79539450781234</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7824956672443675</v>
+        <v>0.7924610051993067</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7974328925135884</v>
+        <v>0.7939250467386216</v>
       </c>
     </row>
     <row r="39">
@@ -2966,49 +2966,49 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3805934850281503</v>
+        <v>0.3802664715811199</v>
       </c>
       <c r="H39" t="n">
-        <v>0.82412215628091</v>
+        <v>0.8238439663699308</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8277892422838701</v>
+        <v>0.8269526575741494</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8246110214189012</v>
+        <v>0.8244212055287243</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8260819150062058</v>
+        <v>0.8255755689239588</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3997237732557368</v>
+        <v>0.3956699652284998</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8103074924209615</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8115157280167018</v>
+        <v>0.8148611698739907</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8103209615341331</v>
+        <v>0.8137849152580522</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8109179046981406</v>
+        <v>0.8143226869565341</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3821620691659634</v>
+        <v>0.3851997026802196</v>
       </c>
       <c r="R39" t="n">
-        <v>0.82105719237435</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8237373465859916</v>
+        <v>0.8239380853612002</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8210571923743502</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8223950858558859</v>
+        <v>0.8229296817719307</v>
       </c>
     </row>
     <row r="40">
@@ -3028,52 +3028,52 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3754670159552687</v>
+        <v>0.3744158916115107</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8290368447082097</v>
+        <v>0.828343577787198</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8324128027770608</v>
+        <v>0.83193899523534</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8294918656968341</v>
+        <v>0.8286401335493623</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8308450050318359</v>
+        <v>0.8301722652035369</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3958729136015335</v>
+        <v>0.3946065630839584</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8150714595062798</v>
+        <v>0.8120398440883499</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8167843376856524</v>
+        <v>0.8131878557874763</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8150873678603314</v>
+        <v>0.8120529383960926</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8159349704405824</v>
+        <v>0.8126200008312765</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3783569147672318</v>
+        <v>0.3807685945884794</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8275563258232236</v>
+        <v>0.8180242634315424</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8302384737678855</v>
+        <v>0.8206283594518888</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8275563258232235</v>
+        <v>0.8180242634315424</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8288952300705684</v>
+        <v>0.8193242422673256</v>
       </c>
     </row>
     <row r="41">
@@ -3093,52 +3093,52 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3735183234439214</v>
+        <v>0.3680252470174345</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8283877349159249</v>
+        <v>0.8287586547972305</v>
       </c>
       <c r="I41" t="n">
-        <v>0.832251138519038</v>
+        <v>0.8324543675724554</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8285430355541403</v>
+        <v>0.8288074924886892</v>
       </c>
       <c r="K41" t="n">
-        <v>0.830273798129999</v>
+        <v>0.8305046718084389</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3977284820677195</v>
+        <v>0.3911252094963224</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8146383715894326</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8125243940113174</v>
+        <v>0.815730316777509</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8111878877910074</v>
+        <v>0.8146510912542109</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8118555908502398</v>
+        <v>0.815190346820996</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3801422043932701</v>
+        <v>0.3783950038394849</v>
       </c>
       <c r="R41" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.8262564991334489</v>
       </c>
       <c r="S41" t="n">
-        <v>0.825870239987887</v>
+        <v>0.8286754443364361</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8232235701906412</v>
+        <v>0.8262564991334489</v>
       </c>
       <c r="U41" t="n">
-        <v>0.8245447812376759</v>
+        <v>0.8274642038991358</v>
       </c>
     </row>
     <row r="42">
@@ -3158,52 +3158,52 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4275830422942209</v>
+        <v>0.4119801991143859</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8004318567189488</v>
+        <v>0.8111885332768123</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8043229477121719</v>
+        <v>0.8147690246045408</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7999714274332964</v>
+        <v>0.8114847847729789</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8020303646282195</v>
+        <v>0.8130223477030267</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4394589201895726</v>
+        <v>0.4279411431601741</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7916847119965353</v>
+        <v>0.7947163274144652</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7940215402113184</v>
+        <v>0.7965151034826321</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7917039921372677</v>
+        <v>0.7947331697764973</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7928610726185781</v>
+        <v>0.7956231388947089</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4207368839033657</v>
+        <v>0.4057529540646204</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8093587521663779</v>
+        <v>0.8167244367417678</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8104366539772676</v>
+        <v>0.8185348756595756</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8093587521663779</v>
+        <v>0.8167244367417678</v>
       </c>
       <c r="U42" t="n">
-        <v>0.8098973444239622</v>
+        <v>0.8176286540082212</v>
       </c>
     </row>
     <row r="43">
@@ -3223,52 +3223,52 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3761104783201196</v>
+        <v>0.3750996313502956</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8298714144411474</v>
+        <v>0.8268113254203759</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8333602146007731</v>
+        <v>0.8303421132430062</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8304366105511085</v>
+        <v>0.8272737284200502</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8317963568953857</v>
+        <v>0.8287001488237168</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3944905899867661</v>
+        <v>0.394443723398217</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8146383715894326</v>
+        <v>0.8137721957557384</v>
       </c>
       <c r="N43" t="n">
-        <v>0.815932662783585</v>
+        <v>0.814736258294841</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8146522166452842</v>
+        <v>0.8137841649973365</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8152919369677412</v>
+        <v>0.8142599333316033</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.381337243919242</v>
+        <v>0.3792845242819121</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8252910254433774</v>
+        <v>0.8261552082269213</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8232235701906413</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8242560013858971</v>
+        <v>0.824904135315831</v>
       </c>
     </row>
     <row r="44">
@@ -3291,49 +3291,49 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0.371633643669741</v>
+        <v>0.3718094075840545</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8316332838773492</v>
+        <v>0.8289441147378833</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8354541411825143</v>
+        <v>0.832469411432133</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8318894053695823</v>
+        <v>0.8293719027107967</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8335640618112783</v>
+        <v>0.8308022633288661</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3966905004035532</v>
+        <v>0.3965309065815479</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8103074924209615</v>
+        <v>0.8142052836725855</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8118009121405149</v>
+        <v>0.8152012101963559</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8103224620555642</v>
+        <v>0.8142174405605949</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8110610133469893</v>
+        <v>0.8147090284005638</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3800409428483203</v>
+        <v>0.3824193519813436</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8232235701906413</v>
       </c>
       <c r="S44" t="n">
-        <v>0.828578007981505</v>
+        <v>0.8254759924385633</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8232235701906412</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8274156251761166</v>
+        <v>0.824348242706205</v>
       </c>
     </row>
     <row r="45">
@@ -3356,49 +3356,49 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.368720106105672</v>
+        <v>0.3672894948508741</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8305249399463049</v>
+        <v>0.8320042037586548</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8345128733408927</v>
+        <v>0.8351971178603506</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8304970732270037</v>
+        <v>0.8325215386167573</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8323889713211738</v>
+        <v>0.8337515854781808</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3941915877137477</v>
+        <v>0.3932800433174786</v>
       </c>
       <c r="M45" t="n">
-        <v>0.815937635339974</v>
+        <v>0.8107405803378086</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8174963623067122</v>
+        <v>0.8115514860302923</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8159527935957746</v>
+        <v>0.8107516111848867</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8167238486342773</v>
+        <v>0.8111513514188614</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3793519725708163</v>
+        <v>0.3792343152293676</v>
       </c>
       <c r="R45" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8232235701906413</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8269294924408906</v>
+        <v>0.8250286939712457</v>
       </c>
       <c r="T45" t="n">
-        <v>0.824523396880416</v>
+        <v>0.8232235701906412</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8257246918719775</v>
+        <v>0.8241251436182142</v>
       </c>
     </row>
     <row r="46">
@@ -3418,52 +3418,52 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3925939694021664</v>
+        <v>0.3969242070631773</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8199493076162216</v>
+        <v>0.8186510880316519</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8232515579771796</v>
+        <v>0.8223098051845168</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8204109019845269</v>
+        <v>0.8190038618189207</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8217234770950783</v>
+        <v>0.8205382023781908</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4053315471007944</v>
+        <v>0.4132296157074301</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8051104374187961</v>
+        <v>0.8064097011693374</v>
       </c>
       <c r="N46" t="n">
-        <v>0.806809197622137</v>
+        <v>0.808583756813075</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8051265314696857</v>
+        <v>0.8064278586808915</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8059669862958269</v>
+        <v>0.8075043687800089</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3898716128588678</v>
+        <v>0.3952314407064126</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8201906412478336</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8234022833678805</v>
+        <v>0.8255023442097071</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8201906412478337</v>
+        <v>0.8219237435008665</v>
       </c>
       <c r="U46" t="n">
-        <v>0.8217933244733748</v>
+        <v>0.823709157069977</v>
       </c>
     </row>
     <row r="47">
@@ -3483,52 +3483,52 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3732569146157164</v>
+        <v>0.371454770247627</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8298272573124206</v>
+        <v>0.8308914441147379</v>
       </c>
       <c r="I47" t="n">
-        <v>0.833575966449197</v>
+        <v>0.8343465577837869</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8304333330995076</v>
+        <v>0.8311713528153842</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8318834493881708</v>
+        <v>0.8326539070037877</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3941463418257335</v>
+        <v>0.3953258809232225</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8116067561715028</v>
+        <v>0.8103074924209615</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8134653496729904</v>
+        <v>0.8113845822599175</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8116234141364125</v>
+        <v>0.8103202112734176</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8125433380458685</v>
+        <v>0.8108520474781898</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3821783943520093</v>
+        <v>0.3802661998325131</v>
       </c>
       <c r="R47" t="n">
-        <v>0.8219237435008665</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8243105645975725</v>
+        <v>0.8257726177132375</v>
       </c>
       <c r="T47" t="n">
-        <v>0.8219237435008666</v>
+        <v>0.8236568457538995</v>
       </c>
       <c r="U47" t="n">
-        <v>0.8231154237624312</v>
+        <v>0.8247133747519324</v>
       </c>
     </row>
     <row r="48">
@@ -3551,49 +3551,49 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3681122027693841</v>
+        <v>0.3674766609902944</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8321455065705807</v>
+        <v>0.8336291860958033</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8349763168330527</v>
+        <v>0.8365717902093764</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8323243329761938</v>
+        <v>0.8336940338361956</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8335572892593979</v>
+        <v>0.8350344899642259</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3949495541952726</v>
+        <v>0.393708807838576</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8124729320051971</v>
+        <v>0.8116067561715028</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8134031471130896</v>
+        <v>0.812995377606031</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8124847134379196</v>
+        <v>0.8116211633542656</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8129436708724929</v>
+        <v>0.8123076892769037</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3799243567891292</v>
+        <v>0.3771487271894857</v>
       </c>
       <c r="R48" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8235468376393914</v>
+        <v>0.8262548379293663</v>
       </c>
       <c r="T48" t="n">
-        <v>0.8214904679376083</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="U48" t="n">
-        <v>0.822517367511766</v>
+        <v>0.8251710599206765</v>
       </c>
     </row>
     <row r="49">
@@ -3613,52 +3613,52 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3606721790765312</v>
+        <v>0.361200078525641</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8344195987000141</v>
+        <v>0.8324722693231595</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8384168452114793</v>
+        <v>0.8359753932919166</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8344328947852169</v>
+        <v>0.8323110221439655</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8363110238989332</v>
+        <v>0.8340374471182466</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3935132771439891</v>
+        <v>0.3952084802033369</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8120398440883499</v>
+        <v>0.8098744045041143</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8133235603419442</v>
+        <v>0.8112553861364352</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8120536886568082</v>
+        <v>0.8098888113619482</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8126881284378933</v>
+        <v>0.8105715227589073</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3788138895440378</v>
+        <v>0.3772374353244576</v>
       </c>
       <c r="R49" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8188908145580589</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8283892652450707</v>
+        <v>0.8219231457308069</v>
       </c>
       <c r="T49" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8188908145580589</v>
       </c>
       <c r="U49" t="n">
-        <v>0.827321507668083</v>
+        <v>0.8204041781715817</v>
       </c>
     </row>
     <row r="50">
@@ -3678,52 +3678,52 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6930129042411806</v>
+        <v>0.6929273889829675</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5468153878762188</v>
+        <v>0.5817701709764025</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4926962734311859</v>
+        <v>0.5903551190071977</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5486051983165333</v>
+        <v>0.5850527694018177</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4977015686104351</v>
+        <v>0.5715262952059841</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6930164099973681</v>
+        <v>0.6929232578257106</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6487656994369857</v>
+        <v>0.67518406236466</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6489885782987677</v>
+        <v>0.6780391857894336</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6487571931246108</v>
+        <v>0.6752113859566199</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6488728650839592</v>
+        <v>0.6766223313381973</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6930139053348157</v>
+        <v>0.6929140222994533</v>
       </c>
       <c r="R50" t="n">
-        <v>0.6386481802426344</v>
+        <v>0.6867417677642981</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6388688327316486</v>
+        <v>0.6900830615444234</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6386481802426343</v>
+        <v>0.6867417677642981</v>
       </c>
       <c r="U50" t="n">
-        <v>0.638758487431614</v>
+        <v>0.6884083603099418</v>
       </c>
     </row>
     <row r="51">
@@ -3743,52 +3743,52 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6905525612617848</v>
+        <v>0.4479296032446264</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6808543521266073</v>
+        <v>0.8005245866892752</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7411989758332801</v>
+        <v>0.8051089020553176</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6820424429201914</v>
+        <v>0.8005402383888526</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7090045935707174</v>
+        <v>0.8027081908533311</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6903763393170959</v>
+        <v>0.4551408728769425</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7366825465569511</v>
+        <v>0.7886530965786055</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7380664556818748</v>
+        <v>0.7910113617283259</v>
       </c>
       <c r="O51" t="n">
-        <v>0.736699002903509</v>
+        <v>0.7886725637158912</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7373820953182894</v>
+        <v>0.7898402313706481</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6902355074620592</v>
+        <v>0.4363107752146938</v>
       </c>
       <c r="R51" t="n">
-        <v>0.7409012131715771</v>
+        <v>0.8050259965337955</v>
       </c>
       <c r="S51" t="n">
-        <v>0.7416917791706847</v>
+        <v>0.8066507632147117</v>
       </c>
       <c r="T51" t="n">
-        <v>0.7409012131715771</v>
+        <v>0.8050259965337955</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7412962853935937</v>
+        <v>0.8058375608927948</v>
       </c>
     </row>
     <row r="52">
@@ -3808,52 +3808,52 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3835718619432099</v>
+        <v>0.3806539321212534</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8232875865479724</v>
+        <v>0.8234730464886252</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8273308315799237</v>
+        <v>0.8278416562517824</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8238500080504937</v>
+        <v>0.8239312340891862</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8254693844429071</v>
+        <v>0.8257608933563847</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3992455086092297</v>
+        <v>0.3972919027667147</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8090082286704201</v>
+        <v>0.8124729320051971</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8098705245973172</v>
+        <v>0.8140923062536951</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8090196343229272</v>
+        <v>0.8124884647414976</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8094448558457358</v>
+        <v>0.8132895947875246</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3833671155690974</v>
+        <v>0.3826501017786639</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8219237435008665</v>
+        <v>0.8258232235701907</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8240281860253487</v>
+        <v>0.8285956621834485</v>
       </c>
       <c r="T52" t="n">
-        <v>0.8219237435008666</v>
+        <v>0.8258232235701906</v>
       </c>
       <c r="U52" t="n">
-        <v>0.8229746194387821</v>
+        <v>0.8272071198811349</v>
       </c>
     </row>
     <row r="53">
@@ -3873,52 +3873,52 @@
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3775238602595301</v>
+        <v>0.3776045720251102</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8276458951533137</v>
+        <v>0.8274604352126608</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8323950616922261</v>
+        <v>0.8326162818777059</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8274849917255315</v>
+        <v>0.8274615787395598</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8297965303554692</v>
+        <v>0.8298912552414972</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3940065247720678</v>
+        <v>0.399007696373747</v>
       </c>
       <c r="M53" t="n">
         <v>0.8120398440883499</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8129393990465643</v>
+        <v>0.8138591201119215</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8120514378746615</v>
+        <v>0.8120563145693129</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8124951758515394</v>
+        <v>0.8129567178704863</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.380460562446149</v>
+        <v>0.3791038652029258</v>
       </c>
       <c r="R53" t="n">
-        <v>0.8223570190641247</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8248952556247124</v>
+        <v>0.8280029550975054</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8223570190641247</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="U53" t="n">
-        <v>0.8236241817712084</v>
+        <v>0.8266943867659112</v>
       </c>
     </row>
     <row r="54">
@@ -3938,52 +3938,52 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6703454521632798</v>
+        <v>0.6842965324190118</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7433985092553342</v>
+        <v>0.7591140313692242</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7519638652159724</v>
+        <v>0.7863747567466827</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7437868059283433</v>
+        <v>0.7598215391070167</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7476970179322892</v>
+        <v>0.7725011030716742</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6703647653646528</v>
+        <v>0.6843394454985395</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7336509311390212</v>
+        <v>0.7561715028150715</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7400866235321867</v>
+        <v>0.7803343708548389</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7336863310000226</v>
+        <v>0.7562350416769827</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7368725796896933</v>
+        <v>0.7680957210947607</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6695141777081139</v>
+        <v>0.6839417021564623</v>
       </c>
       <c r="R54" t="n">
-        <v>0.7422010398613518</v>
+        <v>0.7590987868284229</v>
       </c>
       <c r="S54" t="n">
-        <v>0.7481720430107527</v>
+        <v>0.7815690690690691</v>
       </c>
       <c r="T54" t="n">
-        <v>0.7422010398613519</v>
+        <v>0.7590987868284229</v>
       </c>
       <c r="U54" t="n">
-        <v>0.745174580377771</v>
+        <v>0.7701700660293707</v>
       </c>
     </row>
     <row r="55">
@@ -4003,52 +4003,52 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3801887747003441</v>
+        <v>0.3826506867507047</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8255131058358062</v>
+        <v>0.8244003461918893</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8282263490681345</v>
+        <v>0.827969684479966</v>
       </c>
       <c r="J55" t="n">
-        <v>0.825823436288195</v>
+        <v>0.824786537074867</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8269212445720535</v>
+        <v>0.8262605476581286</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3946711712511566</v>
+        <v>0.401320788804031</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8046773495019489</v>
       </c>
       <c r="N55" t="n">
-        <v>0.8120135707461653</v>
+        <v>0.8063342460380318</v>
       </c>
       <c r="O55" t="n">
-        <v>0.811184886748145</v>
+        <v>0.8046932559064275</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8115990172150516</v>
+        <v>0.8055129152172196</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3822026462244058</v>
+        <v>0.3831287970312254</v>
       </c>
       <c r="R55" t="n">
-        <v>0.8201906412478336</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8224689879127918</v>
+        <v>0.8317585545049435</v>
       </c>
       <c r="T55" t="n">
-        <v>0.8201906412478337</v>
+        <v>0.8279896013864818</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8213282345623243</v>
+        <v>0.8298697986797413</v>
       </c>
     </row>
     <row r="56">
@@ -4068,52 +4068,52 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3755684741584862</v>
+        <v>0.3749299512595917</v>
       </c>
       <c r="H56" t="n">
-        <v>0.827879927935566</v>
+        <v>0.8284804648862513</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8311338382971382</v>
+        <v>0.8327579518831207</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8282104486229799</v>
+        <v>0.8288578566161521</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8295628544867691</v>
+        <v>0.8306790292769023</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3965321970567859</v>
+        <v>0.3981448403714311</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8155045474231269</v>
+        <v>0.8055435253356431</v>
       </c>
       <c r="N56" t="n">
-        <v>0.8165356997696789</v>
+        <v>0.8067004292491904</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8155168921200118</v>
+        <v>0.8055568059900815</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8160259779498763</v>
+        <v>0.8061282120161968</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.381264666325505</v>
+        <v>0.3800003897660319</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8240901213171578</v>
+        <v>0.8297227036395147</v>
       </c>
       <c r="S56" t="n">
-        <v>0.8266420043108668</v>
+        <v>0.8323705044330247</v>
       </c>
       <c r="T56" t="n">
-        <v>0.8240901213171576</v>
+        <v>0.8297227036395147</v>
       </c>
       <c r="U56" t="n">
-        <v>0.8253640903235298</v>
+        <v>0.8310444949941871</v>
       </c>
     </row>
     <row r="57">
@@ -4133,52 +4133,52 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3719161879098001</v>
+        <v>0.3666243125472203</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8288072276388301</v>
+        <v>0.8319114737883284</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8325038698513264</v>
+        <v>0.836235164148731</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8288435521223869</v>
+        <v>0.8319029027106992</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8305511753919725</v>
+        <v>0.8339459873761139</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3941403161376643</v>
+        <v>0.3912479506706925</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8124729320051971</v>
+        <v>0.8163707232568211</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8144219736087206</v>
+        <v>0.8177437705795038</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8124899652629289</v>
+        <v>0.8163849437679593</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8134548222759328</v>
+        <v>0.8170637922212014</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3805073551042012</v>
+        <v>0.3759581914131276</v>
       </c>
       <c r="R57" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="S57" t="n">
-        <v>0.825915294549364</v>
+        <v>0.8278024683886633</v>
       </c>
       <c r="T57" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8253899480069324</v>
       </c>
       <c r="U57" t="n">
-        <v>0.8243498329848657</v>
+        <v>0.8265944478901246</v>
       </c>
     </row>
     <row r="58">
@@ -4198,52 +4198,52 @@
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4631656309102139</v>
+        <v>0.4283996788898516</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7992705242334323</v>
+        <v>0.8053465451462485</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8044895468534345</v>
+        <v>0.8087767022218554</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7990458386158551</v>
+        <v>0.8055599175822528</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8016407330751678</v>
+        <v>0.8070733674982409</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4679362607028252</v>
+        <v>0.4429000553515308</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7886530965786055</v>
+        <v>0.7899523603291468</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7911980044107608</v>
+        <v>0.7911788415755056</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7886733139766069</v>
+        <v>0.7899663883199411</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7899336419212282</v>
+        <v>0.7905721500812236</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.4531033011515532</v>
+        <v>0.4174962854371015</v>
       </c>
       <c r="R58" t="n">
-        <v>0.8024263431542461</v>
+        <v>0.8158578856152513</v>
       </c>
       <c r="S58" t="n">
-        <v>0.8055133281750186</v>
+        <v>0.816991156444642</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8024263431542461</v>
+        <v>0.8158578856152513</v>
       </c>
       <c r="U58" t="n">
-        <v>0.8039668724077739</v>
+        <v>0.81642412775943</v>
       </c>
     </row>
     <row r="59">
@@ -4266,49 +4266,49 @@
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3753581193507645</v>
+        <v>0.3748909332124833</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8296859545004946</v>
+        <v>0.8286659248269042</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8328748881705327</v>
+        <v>0.8330856013605114</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8301463623335678</v>
+        <v>0.8290616652219849</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8314022333542636</v>
+        <v>0.8309458217221242</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3952412432249821</v>
+        <v>0.3926612480660486</v>
       </c>
       <c r="M59" t="n">
-        <v>0.8111736682546556</v>
+        <v>0.8163707232568211</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8125243940113174</v>
+        <v>0.8177437705795038</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8111878877910074</v>
+        <v>0.8163849437679593</v>
       </c>
       <c r="P59" t="n">
-        <v>0.8118555908502398</v>
+        <v>0.8170637922212014</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3810471466688674</v>
+        <v>0.3796451074473105</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.82105719237435</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8281900474392487</v>
+        <v>0.823535487678914</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8258232235701907</v>
+        <v>0.8210571923743502</v>
       </c>
       <c r="U59" t="n">
-        <v>0.8270049420916966</v>
+        <v>0.8222944727108854</v>
       </c>
     </row>
     <row r="60">
@@ -4328,52 +4328,52 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3707104159922064</v>
+        <v>0.3699196125074248</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8335806132542039</v>
+        <v>0.8316332838773492</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8370164737121142</v>
+        <v>0.8352653360685706</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8334549586598557</v>
+        <v>0.8316240270136486</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8351299214008265</v>
+        <v>0.8333381617807656</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3931857875727882</v>
+        <v>0.3955859654981219</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8120398440883499</v>
+        <v>0.8142052836725855</v>
       </c>
       <c r="N60" t="n">
-        <v>0.813394290106015</v>
+        <v>0.8150251081651934</v>
       </c>
       <c r="O60" t="n">
-        <v>0.812054063787166</v>
+        <v>0.8142163151695214</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8127236244200887</v>
+        <v>0.8146205109156148</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.3820891240196104</v>
+        <v>0.3788805433762261</v>
       </c>
       <c r="R60" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8287749287749289</v>
+        <v>0.8294507251341783</v>
       </c>
       <c r="T60" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="U60" t="n">
-        <v>0.8275137978311015</v>
+        <v>0.8282852523728863</v>
       </c>
     </row>
     <row r="61">
@@ -4393,52 +4393,52 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3675319659514592</v>
+        <v>0.3651758573357705</v>
       </c>
       <c r="H61" t="n">
-        <v>0.83135509396637</v>
+        <v>0.8319114737883284</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8350899768254785</v>
+        <v>0.836034253972594</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8311421458331171</v>
+        <v>0.831895756517482</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8330233532814705</v>
+        <v>0.8338451499127613</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3923334656843725</v>
+        <v>0.392628711526952</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8129060199220441</v>
+        <v>0.8124729320051971</v>
       </c>
       <c r="N61" t="n">
-        <v>0.814647771507891</v>
+        <v>0.8143366454396025</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8129221154351137</v>
+        <v>0.812489590132571</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8137840286447705</v>
+        <v>0.8134120692373135</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.379978617827418</v>
+        <v>0.3795353446250966</v>
       </c>
       <c r="R61" t="n">
-        <v>0.8201906412478336</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8229672482914441</v>
+        <v>0.8301778466645697</v>
       </c>
       <c r="T61" t="n">
-        <v>0.8201906412478337</v>
+        <v>0.8271230502599654</v>
       </c>
       <c r="U61" t="n">
-        <v>0.8215765988153263</v>
+        <v>0.8286476331071648</v>
       </c>
     </row>
     <row r="62">
@@ -4458,52 +4458,52 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3989464957170282</v>
+        <v>0.3942018239585068</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8178165182987142</v>
+        <v>0.8211547972304649</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8221613700104407</v>
+        <v>0.8243882437609669</v>
       </c>
       <c r="J62" t="n">
-        <v>0.817975412664226</v>
+        <v>0.8217914108671038</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8199522424066287</v>
+        <v>0.8229812852272347</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4169456756558208</v>
+        <v>0.4072588500298054</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8003464703334777</v>
+        <v>0.8059766132524903</v>
       </c>
       <c r="N62" t="n">
-        <v>0.8023044383733766</v>
+        <v>0.8076013388661873</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8003638764470653</v>
+        <v>0.8059923323354865</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8013329825630754</v>
+        <v>0.8067960333846216</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3970970628210002</v>
+        <v>0.3915704532874889</v>
       </c>
       <c r="R62" t="n">
-        <v>0.8184575389948007</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8214314136403427</v>
+        <v>0.8255338510070371</v>
       </c>
       <c r="T62" t="n">
-        <v>0.8184575389948008</v>
+        <v>0.8223570190641247</v>
       </c>
       <c r="U62" t="n">
-        <v>0.8199417798147406</v>
+        <v>0.8239423728603554</v>
       </c>
     </row>
     <row r="63">
@@ -4523,52 +4523,52 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3702938673245725</v>
+        <v>0.3714396181682206</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8304277942631059</v>
+        <v>0.831818743818002</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8334603345673698</v>
+        <v>0.8351477803257694</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8306783105028703</v>
+        <v>0.8319827861678024</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8319699087395166</v>
+        <v>0.8334644853172608</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3962109044793564</v>
+        <v>0.3951932637378224</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8103074924209615</v>
+        <v>0.8120398440883499</v>
       </c>
       <c r="N63" t="n">
-        <v>0.8118009121405149</v>
+        <v>0.8136180204308761</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8103224620555642</v>
+        <v>0.8120551891782395</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8110610133469893</v>
+        <v>0.8128358535953019</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.3809840577233513</v>
+        <v>0.3801348600836685</v>
       </c>
       <c r="R63" t="n">
-        <v>0.8249566724436742</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8276175334998864</v>
+        <v>0.827665175325468</v>
       </c>
       <c r="T63" t="n">
-        <v>0.8249566724436741</v>
+        <v>0.824523396880416</v>
       </c>
       <c r="U63" t="n">
-        <v>0.8262849608042653</v>
+        <v>0.8260912989221917</v>
       </c>
     </row>
     <row r="64">
@@ -4588,52 +4588,52 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3663706232621226</v>
+        <v>0.3640265284389501</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8320969337289813</v>
+        <v>0.8340442631058359</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8357802516419646</v>
+        <v>0.8370067678148295</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8324125281444978</v>
+        <v>0.8339917280771586</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8339910912535753</v>
+        <v>0.8354008208792437</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3944428678619273</v>
+        <v>0.394812350365886</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8137721957557384</v>
+        <v>0.8146383715894326</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8152821227997438</v>
+        <v>0.8160772317283459</v>
       </c>
       <c r="O64" t="n">
-        <v>0.813787166040199</v>
+        <v>0.8146529669059999</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8145339584774739</v>
+        <v>0.8153644773472463</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3804484420443037</v>
+        <v>0.3776671593052482</v>
       </c>
       <c r="R64" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8240901213171578</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8291934219050108</v>
+        <v>0.8265421618562536</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8262564991334489</v>
+        <v>0.8240901213171576</v>
       </c>
       <c r="U64" t="n">
-        <v>0.8277223553315838</v>
+        <v>0.8253143203140737</v>
       </c>
     </row>
     <row r="65">
@@ -4653,52 +4653,52 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3562208378535648</v>
+        <v>0.3534333496776106</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8376607319485658</v>
+        <v>0.8372942277801328</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8418177297999815</v>
+        <v>0.8413540682967813</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8376458693821019</v>
+        <v>0.8369972518900697</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8396158113600034</v>
+        <v>0.8390672130540707</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3916733269127297</v>
+        <v>0.3929049376161248</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8107405803378086</v>
+        <v>0.8120398440883499</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8120539884880813</v>
+        <v>0.8129986499483006</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8107546122277491</v>
+        <v>0.8120518130050193</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8114037801552663</v>
+        <v>0.8125249556390113</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.3777104671771396</v>
+        <v>0.3742065984169879</v>
       </c>
       <c r="R65" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8193240901213171</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8255894451652582</v>
+        <v>0.8219897765639351</v>
       </c>
       <c r="T65" t="n">
-        <v>0.8227902946273831</v>
+        <v>0.8193240901213172</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8241874932462246</v>
+        <v>0.8206547686487324</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 10:28:32</t>
+          <t>2025-11-15 18:20:29</t>
         </is>
       </c>
     </row>
